--- a/Simulator Component Workbook.xlsx
+++ b/Simulator Component Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenneth.AD\ShareFile\Personal Folders\GitHub\ExcelSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240B18B-A45E-4ED8-A783-E140D904611C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFCD64C-CC42-4406-8A6D-BBD73641E7FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,189 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kenneth Fairchild</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{C49757FE-1B79-4632-BAF8-A63CBE021FA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kenneth Fairchild:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contains all the labels that I will reuse on the main Simulator tab as well as a mapping to know which attribute they correspond to.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{0D235ECA-FF70-42CF-8AAE-94106188D093}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kenneth Fairchild:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Uses Data Validation from the "Data" tab to force the values to conform to the Conjoint levels</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{BF05762C-1765-4D09-B367-D636C8B1DAE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kenneth Fairchild:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Uses boolean type casting to convert TRUE/FALSE to 1/0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{239DA8E6-32EF-4349-B24A-B3E070FA3B7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kenneth Fairchild:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Other than the "Include" and "Weight" columns, this is just a dump of the Raw utilities that you could get out of CBC/HB or Lighthouse Studio.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{60989B35-228F-433F-B779-556D83EDBC30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kenneth Fairchild:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This VLOOKUP works fine except if you have duplicate labels (e.g. Red interior and Red exterior if it were car attributes), the VLOOKUP will only return the first one, and you will have problems. You can get around this with a filtered VLOOKUP or only base this VLOOKUP on the relevant attribute.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{F11CE0F0-ED7C-4DAC-BFD2-716DB7989093}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kenneth Fairchild:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There are many ways to build this, but to make later math easier, it's very nice to have a coded design matrix like this, and this is my favorite way to do it. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K30" authorId="0" shapeId="0" xr:uid="{A6ED0668-BF0E-4BA0-9B9F-7396050D630B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kenneth Fairchild:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This Array Formula is where all the magic happens. It requires that you have specified the named ranges "Design", "Utilities", "ProductInclude", and "RespondentInclude".
+It returns a 1xK array of share of preference values where K is the width of your design matrix. 
+So select the 1xK area, paste this formula and press CTRL-Shift-Enter.
+If you have correctly specified all your ranges, this single formula will do all the calculations for you!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>Red</t>
   </si>
@@ -125,6 +306,21 @@
   </si>
   <si>
     <t>Weighted Share of Preference Calculation</t>
+  </si>
+  <si>
+    <t>Total Utility 1</t>
+  </si>
+  <si>
+    <t>Total Utility 2</t>
+  </si>
+  <si>
+    <t>Total Utility 3</t>
+  </si>
+  <si>
+    <t>Total Utility 4</t>
+  </si>
+  <si>
+    <t>Total Utility 5</t>
   </si>
 </sst>
 </file>
@@ -134,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +352,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -775,8 +990,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:X35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,8 +1002,8 @@
     <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
@@ -814,7 +1029,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
         <v>16</v>
@@ -826,10 +1041,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>14</v>
@@ -838,7 +1053,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="14" t="s">
         <v>11</v>
@@ -862,7 +1077,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -886,7 +1101,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -912,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -928,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="22" t="s">
         <v>17</v>
@@ -939,19 +1154,19 @@
       </c>
       <c r="E8" s="23">
         <f t="shared" ref="E8:H8" si="0">L30</f>
-        <v>0.20388065662119384</v>
+        <v>0.10014505858603924</v>
       </c>
       <c r="F8" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10014505858603924</v>
       </c>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10014505858603924</v>
       </c>
       <c r="H8" s="24">
         <f t="shared" si="0"/>
-        <v>0.79611934337880608</v>
+        <v>0.69956482424188227</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4" t="s">
@@ -961,7 +1176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="J9" s="3"/>
       <c r="K9" s="4" t="s">
         <v>3</v>
@@ -970,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="J10" s="3"/>
       <c r="K10" s="4" t="s">
         <v>4</v>
@@ -979,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="J11" s="3"/>
       <c r="K11" s="4" t="s">
         <v>5</v>
@@ -988,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="J12" s="3"/>
       <c r="K12" s="6" t="s">
         <v>22</v>
@@ -997,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="J13" s="3"/>
       <c r="K13" s="6" t="s">
         <v>23</v>
@@ -1006,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J14" s="7"/>
       <c r="K14" s="8" t="s">
         <v>21</v>
@@ -1015,8 +1230,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1033,11 +1248,11 @@
       </c>
       <c r="F16" s="1">
         <f>1*(F3="Include")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <f>1*(G3="Include")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
         <f>1*(H3="Include")</f>
@@ -1086,8 +1301,38 @@
       <c r="X16" s="26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>1</v>
       </c>
@@ -1095,19 +1340,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="4">
-        <f>VLOOKUP(D4,$K$6:$L$14,2,0)</f>
+        <f t="shared" ref="D17:G19" si="1">VLOOKUP(D4,$K$6:$L$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="E17" s="4">
-        <f>VLOOKUP(E4,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <f>VLOOKUP(F4,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17" s="4">
-        <f>VLOOKUP(G4,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H17" s="5"/>
@@ -1152,8 +1397,44 @@
       <c r="X17" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <f>MMULT($N17:$W17,D$22:D$31)</f>
+        <v>2.1655065030440102</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" ref="AA17:AD17" si="2">MMULT($N17:$W17,E$22:E$31)</f>
+        <v>-2.4597222188522565</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>-2.4597222188522565</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="2"/>
+        <v>-2.4597222188522565</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="2"/>
+        <v>-0.6637837060640166</v>
+      </c>
+      <c r="AF17">
+        <f t="array" ref="AF17:AJ26">MMULT(Utilities,Design)</f>
+        <v>2.1655065030440102</v>
+      </c>
+      <c r="AG17">
+        <v>-2.4597222188522565</v>
+      </c>
+      <c r="AH17">
+        <v>-2.4597222188522565</v>
+      </c>
+      <c r="AI17">
+        <v>-2.4597222188522565</v>
+      </c>
+      <c r="AJ17">
+        <v>-0.6637837060640166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2</v>
       </c>
@@ -1161,19 +1442,19 @@
         <v>12</v>
       </c>
       <c r="D18" s="4">
-        <f>VLOOKUP(D5,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <f>VLOOKUP(E5,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <f>VLOOKUP(F5,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G18" s="4">
-        <f>VLOOKUP(G5,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H18" s="5"/>
@@ -1218,8 +1499,43 @@
       <c r="X18" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <f t="shared" ref="Z18:Z26" si="3">MMULT($N18:$W18,D$22:D$31)</f>
+        <v>-3.2642260494919535</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ref="AA18:AA26" si="4">MMULT($N18:$W18,E$22:E$31)</f>
+        <v>-3.7301032136062666</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ref="AB18:AB26" si="5">MMULT($N18:$W18,F$22:F$31)</f>
+        <v>-3.7301032136062666</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" ref="AC18:AC26" si="6">MMULT($N18:$W18,G$22:G$31)</f>
+        <v>-3.7301032136062666</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" ref="AD18:AD26" si="7">MMULT($N18:$W18,H$22:H$31)</f>
+        <v>1.545042404194124</v>
+      </c>
+      <c r="AF18">
+        <v>-3.2642260494919535</v>
+      </c>
+      <c r="AG18">
+        <v>-3.7301032136062666</v>
+      </c>
+      <c r="AH18">
+        <v>-3.7301032136062666</v>
+      </c>
+      <c r="AI18">
+        <v>-3.7301032136062666</v>
+      </c>
+      <c r="AJ18">
+        <v>1.545042404194124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>3</v>
       </c>
@@ -1227,19 +1543,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="4">
-        <f>VLOOKUP(D6,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <f>VLOOKUP(E6,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F19" s="4">
-        <f>VLOOKUP(F6,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G19" s="4">
-        <f>VLOOKUP(G6,$K$6:$L$14,2,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H19" s="5"/>
@@ -1284,8 +1600,43 @@
       <c r="X19" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>3.1520726127137584</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="4"/>
+        <v>-0.64538814096457342</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="5"/>
+        <v>-0.64538814096457342</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="6"/>
+        <v>-0.64538814096457342</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="7"/>
+        <v>-1.6269166279206462</v>
+      </c>
+      <c r="AF19">
+        <v>3.1520726127137584</v>
+      </c>
+      <c r="AG19">
+        <v>-0.64538814096457342</v>
+      </c>
+      <c r="AH19">
+        <v>-0.64538814096457342</v>
+      </c>
+      <c r="AI19">
+        <v>-0.64538814096457342</v>
+      </c>
+      <c r="AJ19">
+        <v>-1.6269166279206462</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1334,8 +1685,43 @@
       <c r="X20" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <f>MMULT($N20:$W20,D$22:D$31)</f>
+        <v>-1.1309146538925812</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="4"/>
+        <v>-2.5639469775368315</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="5"/>
+        <v>-2.5639469775368315</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="6"/>
+        <v>-2.5639469775368315</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="7"/>
+        <v>-1.0034852923994482</v>
+      </c>
+      <c r="AF20">
+        <v>-1.1309146538925812</v>
+      </c>
+      <c r="AG20">
+        <v>-2.5639469775368315</v>
+      </c>
+      <c r="AH20">
+        <v>-2.5639469775368315</v>
+      </c>
+      <c r="AI20">
+        <v>-2.5639469775368315</v>
+      </c>
+      <c r="AJ20">
+        <v>-1.0034852923994482</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
@@ -1394,8 +1780,43 @@
       <c r="X21" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>0.70914493701617154</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="4"/>
+        <v>-0.51906861734803478</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="5"/>
+        <v>-0.51906861734803478</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="6"/>
+        <v>-0.51906861734803478</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="7"/>
+        <v>1.8722463714826922</v>
+      </c>
+      <c r="AF21">
+        <v>0.70914493701617154</v>
+      </c>
+      <c r="AG21">
+        <v>-0.51906861734803478</v>
+      </c>
+      <c r="AH21">
+        <v>-0.51906861734803478</v>
+      </c>
+      <c r="AI21">
+        <v>-0.51906861734803478</v>
+      </c>
+      <c r="AJ21">
+        <v>1.8722463714826922</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>1</v>
       </c>
@@ -1407,15 +1828,15 @@
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" ref="E22:G30" si="1">1*(VLOOKUP($B22,$B$17:$G$19,E$21+2,0)=$C22)</f>
+        <f t="shared" ref="E22:G30" si="8">1*(VLOOKUP($B22,$B$17:$G$19,E$21+2,0)=$C22)</f>
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H22" s="5">
@@ -1462,8 +1883,43 @@
       <c r="X22" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>1.0670652635370148E-2</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="4"/>
+        <v>-2.3255853585076238</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="5"/>
+        <v>-2.3255853585076238</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="6"/>
+        <v>-2.3255853585076238</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="7"/>
+        <v>1.5132259848662661</v>
+      </c>
+      <c r="AF22">
+        <v>1.0670652635370148E-2</v>
+      </c>
+      <c r="AG22">
+        <v>-2.3255853585076238</v>
+      </c>
+      <c r="AH22">
+        <v>-2.3255853585076238</v>
+      </c>
+      <c r="AI22">
+        <v>-2.3255853585076238</v>
+      </c>
+      <c r="AJ22">
+        <v>1.5132259848662661</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>1</v>
       </c>
@@ -1471,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:D30" si="2">1*(VLOOKUP($B23,$B$17:$G$19,D$21+2,0)=$C23)</f>
+        <f t="shared" ref="D23:D30" si="9">1*(VLOOKUP($B23,$B$17:$G$19,D$21+2,0)=$C23)</f>
         <v>1</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H23" s="5">
@@ -1530,8 +1986,43 @@
       <c r="X23" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>-0.70649362142948746</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="4"/>
+        <v>-1.8080108400898558</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="5"/>
+        <v>-1.8080108400898558</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="6"/>
+        <v>-1.8080108400898558</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="7"/>
+        <v>1.5526881522266276</v>
+      </c>
+      <c r="AF23">
+        <v>-0.70649362142948746</v>
+      </c>
+      <c r="AG23">
+        <v>-1.8080108400898558</v>
+      </c>
+      <c r="AH23">
+        <v>-1.8080108400898558</v>
+      </c>
+      <c r="AI23">
+        <v>-1.8080108400898558</v>
+      </c>
+      <c r="AJ23">
+        <v>1.5526881522266276</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>1</v>
       </c>
@@ -1539,19 +2030,19 @@
         <v>3</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H24" s="5">
@@ -1598,8 +2089,43 @@
       <c r="X24" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>-3.3090084723616586</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="4"/>
+        <v>-5.2915370366790864</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="5"/>
+        <v>-5.2915370366790864</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="6"/>
+        <v>-5.2915370366790864</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="7"/>
+        <v>0.63175942806813135</v>
+      </c>
+      <c r="AF24">
+        <v>-3.3090084723616586</v>
+      </c>
+      <c r="AG24">
+        <v>-5.2915370366790864</v>
+      </c>
+      <c r="AH24">
+        <v>-5.2915370366790864</v>
+      </c>
+      <c r="AI24">
+        <v>-5.2915370366790864</v>
+      </c>
+      <c r="AJ24">
+        <v>0.63175942806813135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2</v>
       </c>
@@ -1607,19 +2133,19 @@
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H25" s="5">
@@ -1666,8 +2192,43 @@
       <c r="X25" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>-3.0165169140216612</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="4"/>
+        <v>-4.2642793484816668</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="5"/>
+        <v>-4.2642793484816668</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="6"/>
+        <v>-4.2642793484816668</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="7"/>
+        <v>-0.5631515597305885</v>
+      </c>
+      <c r="AF25">
+        <v>-3.0165169140216612</v>
+      </c>
+      <c r="AG25">
+        <v>-4.2642793484816668</v>
+      </c>
+      <c r="AH25">
+        <v>-4.2642793484816668</v>
+      </c>
+      <c r="AI25">
+        <v>-4.2642793484816668</v>
+      </c>
+      <c r="AJ25">
+        <v>-0.5631515597305885</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>2</v>
       </c>
@@ -1675,19 +2236,19 @@
         <v>2</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H26" s="5">
@@ -1734,8 +2295,43 @@
       <c r="X26" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>1.9168243197048764</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="4"/>
+        <v>1.3334129813980584</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="5"/>
+        <v>1.3334129813980584</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="6"/>
+        <v>1.3334129813980584</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="7"/>
+        <v>-0.21827878736915185</v>
+      </c>
+      <c r="AF26">
+        <v>1.9168243197048764</v>
+      </c>
+      <c r="AG26">
+        <v>1.3334129813980584</v>
+      </c>
+      <c r="AH26">
+        <v>1.3334129813980584</v>
+      </c>
+      <c r="AI26">
+        <v>1.3334129813980584</v>
+      </c>
+      <c r="AJ26">
+        <v>-0.21827878736915185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -1743,19 +2339,19 @@
         <v>3</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H27" s="5">
@@ -1764,7 +2360,7 @@
       <c r="I27" s="4"/>
       <c r="X27" s="25"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>3</v>
       </c>
@@ -1772,19 +2368,19 @@
         <v>1</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H28" s="5">
@@ -1800,8 +2396,23 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="X28" s="25"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>3</v>
       </c>
@@ -1809,19 +2420,19 @@
         <v>2</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H29" s="5">
@@ -1844,8 +2455,28 @@
       <c r="O29" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z29">
+        <f t="array" ref="Z29:AD38">EXP(MMULT(Utilities,Design))*ProductInclude</f>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>8.5458686482545052E-2</v>
+      </c>
+      <c r="AB29">
+        <v>8.5458686482545052E-2</v>
+      </c>
+      <c r="AC29">
+        <v>8.5458686482545052E-2</v>
+      </c>
+      <c r="AD29">
+        <v>0.51489941603474731</v>
+      </c>
+      <c r="AF29">
+        <f>SUM(Z29:AD29)</f>
+        <v>0.77127547548238251</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -1853,19 +2484,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H30" s="5">
@@ -1880,19 +2511,38 @@
         <v>0</v>
       </c>
       <c r="L30" s="10">
-        <v>0.20388065662119384</v>
+        <v>0.10014505858603924</v>
       </c>
       <c r="M30" s="10">
-        <v>0</v>
+        <v>0.10014505858603924</v>
       </c>
       <c r="N30" s="10">
-        <v>0</v>
+        <v>0.10014505858603924</v>
       </c>
       <c r="O30" s="9">
-        <v>0.79611934337880608</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.69956482424188227</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>2.3990359577391932E-2</v>
+      </c>
+      <c r="AB30">
+        <v>2.3990359577391932E-2</v>
+      </c>
+      <c r="AC30">
+        <v>2.3990359577391932E-2</v>
+      </c>
+      <c r="AD30">
+        <v>4.6881704208957506</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" ref="AF30:AF38" si="10">SUM(Z30:AD30)</f>
+        <v>4.7601414996279265</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
@@ -1911,11 +2561,49 @@
         <v>1</v>
       </c>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0.52445893859741144</v>
+      </c>
+      <c r="AB31">
+        <v>0.52445893859741144</v>
+      </c>
+      <c r="AC31">
+        <v>0.52445893859741144</v>
+      </c>
+      <c r="AD31">
+        <v>0.19653463023247825</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="10"/>
+        <v>1.7699114460247125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>7.7000221728874108E-2</v>
+      </c>
+      <c r="AB32">
+        <v>7.7000221728874108E-2</v>
+      </c>
+      <c r="AC32">
+        <v>7.7000221728874108E-2</v>
+      </c>
+      <c r="AD32">
+        <v>0.36659950552185255</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="10"/>
+        <v>0.59760017070847482</v>
+      </c>
+    </row>
+    <row r="33" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J33" s="11" t="s">
         <v>28</v>
       </c>
@@ -1924,8 +2612,27 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0.59507453204033967</v>
+      </c>
+      <c r="AB33">
+        <v>0.59507453204033967</v>
+      </c>
+      <c r="AC33">
+        <v>0.59507453204033967</v>
+      </c>
+      <c r="AD33">
+        <v>6.5028879061257969</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="10"/>
+        <v>8.2881115022468155</v>
+      </c>
+    </row>
+    <row r="34" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
         <v>6</v>
@@ -1942,8 +2649,27 @@
       <c r="O34" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="10:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>9.7726222429685261E-2</v>
+      </c>
+      <c r="AB34">
+        <v>9.7726222429685261E-2</v>
+      </c>
+      <c r="AC34">
+        <v>9.7726222429685261E-2</v>
+      </c>
+      <c r="AD34">
+        <v>4.5413575394946522</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="10"/>
+        <v>4.8345362067837083</v>
+      </c>
+    </row>
+    <row r="35" spans="10:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="7" t="s">
         <v>17</v>
       </c>
@@ -1952,19 +2678,124 @@
         <v>0</v>
       </c>
       <c r="L35" s="10">
-        <v>0.20388065662119384</v>
+        <v>0.10014505858603924</v>
       </c>
       <c r="M35" s="10">
-        <v>0</v>
+        <v>0.10014505858603924</v>
       </c>
       <c r="N35" s="10">
-        <v>0</v>
+        <v>0.10014505858603924</v>
       </c>
       <c r="O35" s="9">
-        <v>0.79611934337880608</v>
+        <v>0.69956482424188227</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0.16397999503538252</v>
+      </c>
+      <c r="AB35">
+        <v>0.16397999503538252</v>
+      </c>
+      <c r="AC35">
+        <v>0.16397999503538252</v>
+      </c>
+      <c r="AD35">
+        <v>4.7241523698407484</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="10"/>
+        <v>5.2160923549468956</v>
+      </c>
+    </row>
+    <row r="36" spans="10:32" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>5.0340168417278633E-3</v>
+      </c>
+      <c r="AB36">
+        <v>5.0340168417278633E-3</v>
+      </c>
+      <c r="AC36">
+        <v>5.0340168417278633E-3</v>
+      </c>
+      <c r="AD36">
+        <v>1.8809170078772297</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="10"/>
+        <v>1.8960190584024132</v>
+      </c>
+    </row>
+    <row r="37" spans="10:32" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>1.4061997282146129E-2</v>
+      </c>
+      <c r="AB37">
+        <v>1.4061997282146129E-2</v>
+      </c>
+      <c r="AC37">
+        <v>1.4061997282146129E-2</v>
+      </c>
+      <c r="AD37">
+        <v>0.56941169810585879</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="10"/>
+        <v>0.61159768995229713</v>
+      </c>
+    </row>
+    <row r="38" spans="10:32" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>3.7939700650226804</v>
+      </c>
+      <c r="AB38">
+        <v>3.7939700650226804</v>
+      </c>
+      <c r="AC38">
+        <v>3.7939700650226804</v>
+      </c>
+      <c r="AD38">
+        <v>0.80390129289658407</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="10"/>
+        <v>12.185811487964624</v>
+      </c>
+    </row>
+    <row r="40" spans="10:32" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <f t="array" ref="Z40">AVERAGE(Z29:Z38/$AF$29:$AF$38)</f>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="array" ref="AA40">AVERAGE(AA29:AA38/$AF$29:$AF$38)</f>
+        <v>0.10014505858603924</v>
+      </c>
+      <c r="AB40">
+        <f t="array" ref="AB40">AVERAGE(AB29:AB38/$AF$29:$AF$38)</f>
+        <v>0.10014505858603924</v>
+      </c>
+      <c r="AC40">
+        <f t="array" ref="AC40">AVERAGE(AC29:AC38/$AF$29:$AF$38)</f>
+        <v>0.10014505858603924</v>
+      </c>
+      <c r="AD40">
+        <f t="array" ref="AD40">AVERAGE(AD29:AD38/$AF$29:$AF$38)</f>
+        <v>0.69956482424188227</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D3:H3">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Exclude"</formula>
@@ -1973,7 +2804,7 @@
       <formula>"Include"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$6:$K$8</formula1>
     </dataValidation>
@@ -1992,5 +2823,6 @@
   <ignoredErrors>
     <ignoredError sqref="D6" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Simulator Component Workbook.xlsx
+++ b/Simulator Component Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenneth.AD\ShareFile\Personal Folders\GitHub\ExcelSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sawtoothsoftware-my.sharepoint.com/personal/kenneth_sawtoothsoftware_com/Documents/GitHub/ExcelSimulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFCD64C-CC42-4406-8A6D-BBD73641E7FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{FAFCD64C-CC42-4406-8A6D-BBD73641E7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C001CC66-AA8F-471E-AC0D-85549702329E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="Utilities">Sheet1!$N$17:$W$26</definedName>
     <definedName name="Weights">Sheet1!$X$17:$X$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -993,7 +996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2804,7 +2809,7 @@
       <formula>"Include"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$6:$K$8</formula1>
     </dataValidation>

--- a/Simulator Component Workbook.xlsx
+++ b/Simulator Component Workbook.xlsx
@@ -8,20 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sawtoothsoftware-my.sharepoint.com/personal/kenneth_sawtoothsoftware_com/Documents/GitHub/ExcelSimulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{FAFCD64C-CC42-4406-8A6D-BBD73641E7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C001CC66-AA8F-471E-AC0D-85549702329E}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{FAFCD64C-CC42-4406-8A6D-BBD73641E7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABAF6542-49E4-4527-BCD0-E02F07C66C75}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Base Simulator" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulator with Interpolation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Design">Sheet1!$D$22:$H$31</definedName>
-    <definedName name="ProductInclude">Sheet1!$D$16:$H$16</definedName>
-    <definedName name="RespondentInclude">Sheet1!$M$17:$M$26</definedName>
-    <definedName name="rng">Sheet1!#REF!</definedName>
-    <definedName name="Utilities">Sheet1!$N$17:$W$26</definedName>
-    <definedName name="Weights">Sheet1!$X$17:$X$26</definedName>
+    <definedName name="Design">'Base Simulator'!$D$22:$H$31</definedName>
+    <definedName name="InterpolationDesign">'Simulator with Interpolation'!$D$22:$H$31</definedName>
+    <definedName name="InterpolationProductInclude">'Simulator with Interpolation'!$D$16:$H$16</definedName>
+    <definedName name="InterpolationRespondentInclude">'Simulator with Interpolation'!$M$17:$M$26</definedName>
+    <definedName name="InterpolationUtilities">'Simulator with Interpolation'!$N$17:$W$26</definedName>
+    <definedName name="InterpolationWeights">'Simulator with Interpolation'!$X$17:$X$26</definedName>
+    <definedName name="ProductInclude">'Base Simulator'!$D$16:$H$16</definedName>
+    <definedName name="RespondentInclude">'Base Simulator'!$M$17:$M$26</definedName>
+    <definedName name="rng">'Base Simulator'!#REF!</definedName>
+    <definedName name="Utilities">'Base Simulator'!$N$17:$W$26</definedName>
+    <definedName name="Weights">'Base Simulator'!$X$17:$X$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -221,8 +227,75 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4F5A4627-0C83-4224-BC8F-AFDCFB896F88}</author>
+    <author>tc={B406D49B-C027-4127-AF08-F371261FF2A8}</author>
+    <author>tc={9C244862-CCD1-4CA1-9BED-EE00516B9F07}</author>
+    <author>tc={E62E0BAD-4200-41F8-97D1-AFF2E8FCBF42}</author>
+    <author>tc={177DC505-0F5F-48B1-93A8-670E28B6D286}</author>
+    <author>tc={82401466-D6FD-4257-9768-435617439E0D}</author>
+  </authors>
+  <commentList>
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{4F5A4627-0C83-4224-BC8F-AFDCFB896F88}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    One value below the range and one above just make it so the formula can be dragged cleanly across all cells, only the highlighted rows matter.</t>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="1" shapeId="0" xr:uid="{B406D49B-C027-4127-AF08-F371261FF2A8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is where the actual interpolation values are computed
+Reply:
+    The main linear interpolation formula is (cell-RangeMin)/(RangeMax-RangeMin)
+The rest of the formula is just a yes/no logic to get the right math for the right range. 
+E.g. If you're between 1 and 2. If you're at 1.1, you should be 0.9 weighted at 1, and 0.1 weighted at 2.</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="2" shapeId="0" xr:uid="{9C244862-CCD1-4CA1-9BED-EE00516B9F07}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These values are changed to be validated as a 'decimal' value between $1 and $3</t>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="3" shapeId="0" xr:uid="{E62E0BAD-4200-41F8-97D1-AFF2E8FCBF42}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These labels are no longer used</t>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="4" shapeId="0" xr:uid="{177DC505-0F5F-48B1-93A8-670E28B6D286}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These values are no longer a lookup of the simulator page, they just reflect the values directly</t>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="5" shapeId="0" xr:uid="{82401466-D6FD-4257-9768-435617439E0D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These values are no longer a calculation from the values above, but refer directly to the interpolation calculations.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="36">
   <si>
     <t>Red</t>
   </si>
@@ -325,15 +398,45 @@
   <si>
     <t>Total Utility 5</t>
   </si>
+  <si>
+    <t>Interpolation Calculation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cells modified from base are in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and commented</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,8 +478,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +778,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -691,13 +808,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -729,6 +870,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kenneth Fairchild" id="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" userId="Kenneth Fairchild" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,13 +1139,39 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O4" dT="2020-04-28T17:45:43.30" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{4F5A4627-0C83-4224-BC8F-AFDCFB896F88}">
+    <text>One value below the range and one above just make it so the formula can be dragged cleanly across all cells, only the highlighted rows matter.</text>
+  </threadedComment>
+  <threadedComment ref="P5" dT="2020-04-28T17:44:44.86" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{B406D49B-C027-4127-AF08-F371261FF2A8}">
+    <text>This is where the actual interpolation values are computed</text>
+  </threadedComment>
+  <threadedComment ref="P5" dT="2020-04-28T17:51:47.13" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{C25B421F-DD26-4433-934C-C0FC49553B94}" parentId="{B406D49B-C027-4127-AF08-F371261FF2A8}">
+    <text>The main linear interpolation formula is (cell-RangeMin)/(RangeMax-RangeMin)
+The rest of the formula is just a yes/no logic to get the right math for the right range. 
+E.g. If you're between 1 and 2. If you're at 1.1, you should be 0.9 weighted at 1, and 0.1 weighted at 2.</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2020-04-28T17:42:40.48" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{9C244862-CCD1-4CA1-9BED-EE00516B9F07}">
+    <text>These values are changed to be validated as a 'decimal' value between $1 and $3</text>
+  </threadedComment>
+  <threadedComment ref="K12" dT="2020-04-28T17:55:50.84" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{E62E0BAD-4200-41F8-97D1-AFF2E8FCBF42}">
+    <text>These labels are no longer used</text>
+  </threadedComment>
+  <threadedComment ref="G19" dT="2020-04-28T17:43:39.92" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{177DC505-0F5F-48B1-93A8-670E28B6D286}">
+    <text>These values are no longer a lookup of the simulator page, they just reflect the values directly</text>
+  </threadedComment>
+  <threadedComment ref="D28" dT="2020-04-28T17:44:28.39" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{82401466-D6FD-4257-9768-435617439E0D}">
+    <text>These values are no longer a calculation from the values above, but refer directly to the interpolation calculations.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2802,14 +2975,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D3:H3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Exclude"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Include"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$6:$K$8</formula1>
     </dataValidation>
@@ -2830,4 +3003,1319 @@
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518676DD-3237-42B0-8755-C398811B1202}">
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="29">
+        <f>AND(D$19&gt;=$O4,D$19&lt;$O5)*((D$19-$O4)/($O5-$O4))+
+  AND(D$19&gt;=$O5,D$19&lt;$O6)*(1-(D$19-$O5)/($O6-$O5))</f>
+        <v>0.99</v>
+      </c>
+      <c r="Q5" s="29">
+        <f t="shared" ref="Q5:S5" si="0">AND(E$19&gt;=$O4,E$19&lt;$O5)*((E$19-$O4)/($O5-$O4))+
+  AND(E$19&gt;=$O5,E$19&lt;$O6)*(1-(E$19-$O5)/($O6-$O5))</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1.01</v>
+      </c>
+      <c r="E6" s="31">
+        <v>2.25</v>
+      </c>
+      <c r="F6" s="31">
+        <v>2.75</v>
+      </c>
+      <c r="G6" s="31">
+        <v>2</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
+      <c r="P6" s="29">
+        <f t="shared" ref="P6:P7" si="1">AND(D$19&gt;=$O5,D$19&lt;$O6)*((D$19-$O5)/($O6-$O5))+
+  AND(D$19&gt;=$O6,D$19&lt;$O7)*(1-(D$19-$O6)/($O7-$O6))</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="Q6" s="29">
+        <f t="shared" ref="Q6:Q7" si="2">AND(E$19&gt;=$O5,E$19&lt;$O6)*((E$19-$O5)/($O6-$O5))+
+  AND(E$19&gt;=$O6,E$19&lt;$O7)*(1-(E$19-$O6)/($O7-$O6))</f>
+        <v>0.75</v>
+      </c>
+      <c r="R6" s="29">
+        <f t="shared" ref="R6:R7" si="3">AND(F$19&gt;=$O5,F$19&lt;$O6)*((F$19-$O5)/($O6-$O5))+
+  AND(F$19&gt;=$O6,F$19&lt;$O7)*(1-(F$19-$O6)/($O7-$O6))</f>
+        <v>0.25</v>
+      </c>
+      <c r="S6" s="32">
+        <f t="shared" ref="S6:S7" si="4">AND(G$19&gt;=$O5,G$19&lt;$O6)*((G$19-$O5)/($O6-$O5))+
+  AND(G$19&gt;=$O6,G$19&lt;$O7)*(1-(G$19-$O6)/($O7-$O6))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
+      <c r="P7" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="29">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="R7" s="29">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="S7" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23">
+        <f>K30</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <f>L30</f>
+        <v>1.6373937025027971E-2</v>
+      </c>
+      <c r="F8" s="23">
+        <f>M30</f>
+        <v>7.4471290537957546E-3</v>
+      </c>
+      <c r="G8" s="23">
+        <f>N30</f>
+        <v>2.4698528118794773E-2</v>
+      </c>
+      <c r="H8" s="24">
+        <f>O30</f>
+        <v>0.95148040580238169</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7">
+        <v>4</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="7"/>
+      <c r="K14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <f>1*(D3="Include")</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f>1*(E3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f>1*(F3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1*(G3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <f>1*(H3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X16" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:G19" si="5">VLOOKUP(D4,$K$6:$L$14,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>-3.6234906809517637</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1.0017380409445025</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2.6217526400072613</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>-2.1595092491668759</v>
+      </c>
+      <c r="R17" s="4">
+        <v>-0.81361518618904993</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2.9731244353559259</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3.3232777112663836</v>
+      </c>
+      <c r="U17" s="4">
+        <v>-0.57623882460399356</v>
+      </c>
+      <c r="V17" s="4">
+        <v>-2.74703888666239</v>
+      </c>
+      <c r="W17" s="5">
+        <v>-0.6637837060640166</v>
+      </c>
+      <c r="X17" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-0.80942405210077695</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-0.34354688798646382</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1.1529709400872408</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-4.5389422159422264</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1.8983101366976927</v>
+      </c>
+      <c r="S18" s="4">
+        <v>2.6406320792445337</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1.6182630544367367</v>
+      </c>
+      <c r="U18" s="4">
+        <v>-0.40938601768766247</v>
+      </c>
+      <c r="V18" s="4">
+        <v>-1.2088770367490742</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1.545042404194124</v>
+      </c>
+      <c r="X18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="30">
+        <f>D6</f>
+        <v>1.01</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" ref="E19:G19" si="6">E6</f>
+        <v>2.25</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" si="6"/>
+        <v>2.75</v>
+      </c>
+      <c r="G19" s="30">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>-2.7382290409865537</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1.0592317126917781</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.6789973282947757</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-0.73895587578903932</v>
+      </c>
+      <c r="R19" s="4">
+        <v>-9.7894924837435671E-2</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.83685080062647499</v>
+      </c>
+      <c r="T19" s="4">
+        <v>2.8317967758110196</v>
+      </c>
+      <c r="U19" s="4">
+        <v>-0.85675621312899386</v>
+      </c>
+      <c r="V19" s="4">
+        <v>-1.9750405626820255</v>
+      </c>
+      <c r="W19" s="5">
+        <v>-1.6269166279206462</v>
+      </c>
+      <c r="X19" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>4</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>-1.9956515376533084</v>
+      </c>
+      <c r="O20" s="4">
+        <v>-0.56261921400905801</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.5582707516623664</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>-1.2301553514877654</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.40314139672182003</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.82701395476594541</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0.66185991160424229</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0.61852681170604562</v>
+      </c>
+      <c r="V20" s="4">
+        <v>-1.2803867233102879</v>
+      </c>
+      <c r="W20" s="5">
+        <v>-1.0034852923994482</v>
+      </c>
+      <c r="X20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>-1.4604352378315344</v>
+      </c>
+      <c r="O21" s="4">
+        <v>-0.23222168346732808</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1.6926569212988625</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>-1.8158593763926805</v>
+      </c>
+      <c r="R21" s="4">
+        <v>-0.35355392593739565</v>
+      </c>
+      <c r="S21" s="4">
+        <v>2.1694133023300761</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2.7572259968761799</v>
+      </c>
+      <c r="U21" s="4">
+        <v>-0.31874165768128737</v>
+      </c>
+      <c r="V21" s="4">
+        <v>-2.4384843391948925</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1.8722463714826922</v>
+      </c>
+      <c r="X21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <f>1*(VLOOKUP($B22,$B$17:$G$19,D$21+2,0)=$C22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:G30" si="7">1*(VLOOKUP($B22,$B$17:$G$19,E$21+2,0)=$C22)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>6</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>-2.2838712058546169</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5.2384805288376857E-2</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2.23148640056624</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>-0.72781888837503406</v>
+      </c>
+      <c r="R22" s="4">
+        <v>-0.17690277077403671</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.90472165914907077</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0.68610473572202735</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0.621646938817773</v>
+      </c>
+      <c r="V22" s="4">
+        <v>-1.3077516745398003</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1.5132259848662661</v>
+      </c>
+      <c r="X22" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:D30" si="8">1*(VLOOKUP($B23,$B$17:$G$19,D$21+2,0)=$C23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>7</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>-1.459969830214795</v>
+      </c>
+      <c r="O23" s="4">
+        <v>-0.35845261155442687</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1.8184224417692219</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>-1.9692163349254073</v>
+      </c>
+      <c r="R23" s="4">
+        <v>-0.88731264037003044</v>
+      </c>
+      <c r="S23" s="4">
+        <v>2.8565289752954377</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1.6211753250503467</v>
+      </c>
+      <c r="U23" s="4">
+        <v>-0.65915500994560983</v>
+      </c>
+      <c r="V23" s="4">
+        <v>-0.96202031510473685</v>
+      </c>
+      <c r="W23" s="5">
+        <v>1.5526881522266276</v>
+      </c>
+      <c r="X23" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <v>8</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <v>-1.569385126102139</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.41314343821528876</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1.1562416878868502</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>-5.1515062573876893</v>
+      </c>
+      <c r="R24" s="4">
+        <v>2.1550564397316352</v>
+      </c>
+      <c r="S24" s="4">
+        <v>2.9964498176560541</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1.4293543468107419</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.20743267504439933</v>
+      </c>
+      <c r="V24" s="4">
+        <v>-1.6367870218551412</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0.63175942806813135</v>
+      </c>
+      <c r="X24" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <v>9</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>-1.033203933479321</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.21455850098068496</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.81864543249863608</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>-4.6348456913410887</v>
+      </c>
+      <c r="R25" s="4">
+        <v>2.1952689230411471</v>
+      </c>
+      <c r="S25" s="4">
+        <v>2.4395767682999416</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1.403770276338743</v>
+      </c>
+      <c r="U25" s="4">
+        <v>-9.069001789571951E-2</v>
+      </c>
+      <c r="V25" s="4">
+        <v>-1.3130802584430235</v>
+      </c>
+      <c r="W25" s="5">
+        <v>-0.5631515597305885</v>
+      </c>
+      <c r="X25" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10">
+        <v>10</v>
+      </c>
+      <c r="M26" s="10">
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
+        <v>-1.5026211672830621</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-0.91920982897624404</v>
+      </c>
+      <c r="P26" s="10">
+        <v>2.4218309962593061</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>-2.0418334227990425</v>
+      </c>
+      <c r="R26" s="10">
+        <v>-0.36998533916696497</v>
+      </c>
+      <c r="S26" s="10">
+        <v>2.4118187619660074</v>
+      </c>
+      <c r="T26" s="10">
+        <v>4.8778675714801629</v>
+      </c>
+      <c r="U26" s="10">
+        <v>-1.9590992549862021</v>
+      </c>
+      <c r="V26" s="10">
+        <v>-2.9187683164939608</v>
+      </c>
+      <c r="W26" s="9">
+        <v>-0.21827878736915185</v>
+      </c>
+      <c r="X26" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="X27" s="25"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29">
+        <f t="shared" ref="D28:G30" si="9">P5</f>
+        <v>0.99</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="X28" s="25"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="29">
+        <f t="shared" si="9"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="29">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="F30" s="29">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="array" ref="K30:O30">MMULT(TRANSPOSE(InterpolationRespondentInclude),(EXP(MMULT(InterpolationUtilities,InterpolationDesign))*MMULT(InterpolationRespondentInclude,InterpolationProductInclude))/(MMULT(EXP(MMULT(InterpolationUtilities,InterpolationDesign)),TRANSPOSE(InterpolationProductInclude))))/SUM(InterpolationRespondentInclude)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1.6373937025027971E-2</v>
+      </c>
+      <c r="M30" s="10">
+        <v>7.4471290537957546E-3</v>
+      </c>
+      <c r="N30" s="10">
+        <v>2.4698528118794773E-2</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0.95148040580238169</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+      <c r="K34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="array" ref="K35:O35">MMULT(TRANSPOSE(InterpolationRespondentInclude*InterpolationWeights),(EXP(MMULT(InterpolationUtilities,InterpolationDesign))*MMULT(InterpolationRespondentInclude,InterpolationProductInclude))/(MMULT(EXP(MMULT(InterpolationUtilities,InterpolationDesign)),TRANSPOSE(InterpolationProductInclude))))/SUM(InterpolationRespondentInclude*InterpolationWeights)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>1.6373937025027971E-2</v>
+      </c>
+      <c r="M35" s="10">
+        <v>7.4471290537957546E-3</v>
+      </c>
+      <c r="N35" s="10">
+        <v>2.4698528118794773E-2</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0.95148040580238169</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:H3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Exclude"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Include"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:H3" xr:uid="{8D818C83-2CB3-40EE-AF09-6EDEE6A074F8}">
+      <formula1>$K$4:$K$5</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6" xr:uid="{E7F3DC3A-6171-40EF-B417-D689B9670913}">
+      <formula1>1</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:G5" xr:uid="{0E977B82-3883-464B-9A40-DF45DF9E7CAD}">
+      <formula1>$K$9:$K$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:G4" xr:uid="{CBF8B516-C5B2-49BC-89EB-D0798F65C236}">
+      <formula1>$K$6:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Simulator Component Workbook.xlsx
+++ b/Simulator Component Workbook.xlsx
@@ -1,31 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sawtoothsoftware-my.sharepoint.com/personal/kenneth_sawtoothsoftware_com/Documents/GitHub/ExcelSimulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{FAFCD64C-CC42-4406-8A6D-BBD73641E7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABAF6542-49E4-4527-BCD0-E02F07C66C75}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="13_ncr:1_{FAFCD64C-CC42-4406-8A6D-BBD73641E7FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{466810C5-2ED1-4863-B8D6-EF71EE835FE7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Simulator" sheetId="1" r:id="rId1"/>
     <sheet name="Simulator with Interpolation" sheetId="2" r:id="rId2"/>
+    <sheet name="Simulator with InterpolationAlt" sheetId="3" r:id="rId3"/>
+    <sheet name="Simulator with Interpolatio (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Design">'Base Simulator'!$D$22:$H$31</definedName>
+    <definedName name="ExpTotalUtility">EXP(MMULT(Utilities,Design))*MMULT(RespondentInclude,ProductInclude)</definedName>
+    <definedName name="Interp1" localSheetId="3">'Simulator with Interpolatio (2)'!$P$2:$S$5</definedName>
+    <definedName name="Interp1">'Simulator with InterpolationAlt'!$P$2:$S$6</definedName>
+    <definedName name="Interp1Levels" localSheetId="3">'Simulator with Interpolatio (2)'!$O$3:$O$5</definedName>
+    <definedName name="Interp1Levels">'Simulator with InterpolationAlt'!$O$4:$O$6</definedName>
+    <definedName name="InterpolationDesign" localSheetId="3">'Simulator with Interpolatio (2)'!$D$22:$H$31</definedName>
+    <definedName name="InterpolationDesign" localSheetId="2">'Simulator with InterpolationAlt'!$D$22:$H$31</definedName>
     <definedName name="InterpolationDesign">'Simulator with Interpolation'!$D$22:$H$31</definedName>
+    <definedName name="InterpolationProductInclude" localSheetId="3">'Simulator with Interpolatio (2)'!$D$16:$H$16</definedName>
+    <definedName name="InterpolationProductInclude" localSheetId="2">'Simulator with InterpolationAlt'!$D$16:$H$16</definedName>
     <definedName name="InterpolationProductInclude">'Simulator with Interpolation'!$D$16:$H$16</definedName>
+    <definedName name="InterpolationRespondentInclude" localSheetId="3">'Simulator with Interpolatio (2)'!$M$17:$M$26</definedName>
+    <definedName name="InterpolationRespondentInclude" localSheetId="2">'Simulator with InterpolationAlt'!$M$17:$M$26</definedName>
     <definedName name="InterpolationRespondentInclude">'Simulator with Interpolation'!$M$17:$M$26</definedName>
+    <definedName name="InterpolationUtilities" localSheetId="3">'Simulator with Interpolatio (2)'!$N$17:$W$26</definedName>
+    <definedName name="InterpolationUtilities" localSheetId="2">'Simulator with InterpolationAlt'!$N$17:$W$26</definedName>
     <definedName name="InterpolationUtilities">'Simulator with Interpolation'!$N$17:$W$26</definedName>
+    <definedName name="InterpolationWeights" localSheetId="3">'Simulator with Interpolatio (2)'!$X$17:$X$26</definedName>
+    <definedName name="InterpolationWeights" localSheetId="2">'Simulator with InterpolationAlt'!$X$17:$X$26</definedName>
     <definedName name="InterpolationWeights">'Simulator with Interpolation'!$X$17:$X$26</definedName>
+    <definedName name="IntLevels1">'Simulator with Interpolatio (2)'!$O$3:$O$5</definedName>
     <definedName name="ProductInclude">'Base Simulator'!$D$16:$H$16</definedName>
     <definedName name="RespondentInclude">'Base Simulator'!$M$17:$M$26</definedName>
-    <definedName name="rng">'Base Simulator'!#REF!</definedName>
+    <definedName name="rng">'Base Simulator'!$C$45:$G$54</definedName>
     <definedName name="Utilities">'Base Simulator'!$N$17:$W$26</definedName>
     <definedName name="Weights">'Base Simulator'!$X$17:$X$26</definedName>
   </definedNames>
@@ -294,8 +312,146 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0A853DEA-A5AE-4B0A-BD01-352ACE46D611}</author>
+    <author>tc={68B22DBE-C455-4813-A97C-739AB617BD11}</author>
+    <author>tc={6CF89879-E080-4DD1-8B14-0AC731CB73F8}</author>
+    <author>tc={048F12FE-8F77-4B6C-B7C6-BD838819A10A}</author>
+    <author>tc={071DB3AD-B471-476F-80DA-868F308C8B54}</author>
+  </authors>
+  <commentList>
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{0A853DEA-A5AE-4B0A-BD01-352ACE46D611}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is where the actual interpolation values are computed
+Reply:
+    The main linear interpolation formula is (cell-RangeMin)/(RangeMax-RangeMin)
+The rest of the formula is just a yes/no logic to get the right math for the right range. 
+E.g. If you're between 1 and 2. If you're at 1.1, you should be 0.9 weighted at 1, and 0.1 weighted at 2.</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{68B22DBE-C455-4813-A97C-739AB617BD11}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These values are changed to be validated as a 'decimal' value between $1 and $3</t>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="2" shapeId="0" xr:uid="{6CF89879-E080-4DD1-8B14-0AC731CB73F8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These labels are no longer used</t>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="3" shapeId="0" xr:uid="{048F12FE-8F77-4B6C-B7C6-BD838819A10A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These values are no longer a lookup of the simulator page, they just reflect the values directly</t>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="4" shapeId="0" xr:uid="{071DB3AD-B471-476F-80DA-868F308C8B54}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These values are no longer a calculation from the values above, but refer directly to the interpolation calculations.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={578AB649-75F7-4B10-B4AC-34F5898D81D6}</author>
+    <author>tc={87FEA0A8-851D-4A20-9007-1A5DBE2E6731}</author>
+    <author>tc={9E5EF1E4-F899-4DBD-92D9-4CFC6136B367}</author>
+    <author>tc={91D15411-16B7-4124-9999-DC9AD086B99C}</author>
+    <author>tc={F3AE2629-A2DA-4580-A5E2-7063ECDD12B5}</author>
+  </authors>
+  <commentList>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{578AB649-75F7-4B10-B4AC-34F5898D81D6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is where the actual interpolation values are computed
+Reply:
+    The main linear interpolation formula is (cell-RangeMin)/(RangeMax-RangeMin)
+The rest of the formula is just a yes/no logic to get the right math for the right range. 
+E.g. If you're between 1 and 2. If you're at 1.1, you should be 0.9 weighted at 1, and 0.1 weighted at 2.</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{87FEA0A8-851D-4A20-9007-1A5DBE2E6731}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These values are changed to be validated as a 'decimal' value between $1 and $3</t>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="2" shapeId="0" xr:uid="{9E5EF1E4-F899-4DBD-92D9-4CFC6136B367}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These labels are no longer used</t>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="3" shapeId="0" xr:uid="{91D15411-16B7-4124-9999-DC9AD086B99C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These values are no longer a lookup of the simulator page, they just reflect the values directly</t>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="4" shapeId="0" xr:uid="{F3AE2629-A2DA-4580-A5E2-7063ECDD12B5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These values are no longer a calculation from the values above, but refer directly to the interpolation calculations.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="42">
   <si>
     <t>Red</t>
   </si>
@@ -427,14 +583,33 @@
       <t xml:space="preserve"> and commented</t>
     </r>
   </si>
+  <si>
+    <t>Price ($1-$3)</t>
+  </si>
+  <si>
+    <t>Cleaner with LET function</t>
+  </si>
+  <si>
+    <t>First Choice definitely possible if this formula can sit in some cells somewhere</t>
+  </si>
+  <si>
+    <t>First Choice Grid</t>
+  </si>
+  <si>
+    <t>First Choice Shares (votes split if equal)</t>
+  </si>
+  <si>
+    <t>First Choice (work in progress)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -778,7 +953,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -812,13 +987,57 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1167,11 +1386,64 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P4" dT="2020-04-28T17:44:44.86" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{0A853DEA-A5AE-4B0A-BD01-352ACE46D611}">
+    <text>This is where the actual interpolation values are computed</text>
+  </threadedComment>
+  <threadedComment ref="P4" dT="2020-04-28T17:51:47.13" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{195CCD4A-E2C8-45D6-8DF6-98AD244337C4}" parentId="{0A853DEA-A5AE-4B0A-BD01-352ACE46D611}">
+    <text>The main linear interpolation formula is (cell-RangeMin)/(RangeMax-RangeMin)
+The rest of the formula is just a yes/no logic to get the right math for the right range. 
+E.g. If you're between 1 and 2. If you're at 1.1, you should be 0.9 weighted at 1, and 0.1 weighted at 2.</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2020-04-28T17:42:40.48" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{68B22DBE-C455-4813-A97C-739AB617BD11}">
+    <text>These values are changed to be validated as a 'decimal' value between $1 and $3</text>
+  </threadedComment>
+  <threadedComment ref="K12" dT="2020-04-28T17:55:50.84" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{6CF89879-E080-4DD1-8B14-0AC731CB73F8}">
+    <text>These labels are no longer used</text>
+  </threadedComment>
+  <threadedComment ref="G19" dT="2020-04-28T17:43:39.92" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{048F12FE-8F77-4B6C-B7C6-BD838819A10A}">
+    <text>These values are no longer a lookup of the simulator page, they just reflect the values directly</text>
+  </threadedComment>
+  <threadedComment ref="D28" dT="2020-04-28T17:44:28.39" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{071DB3AD-B471-476F-80DA-868F308C8B54}">
+    <text>These values are no longer a calculation from the values above, but refer directly to the interpolation calculations.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P3" dT="2020-04-28T17:44:44.86" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{578AB649-75F7-4B10-B4AC-34F5898D81D6}">
+    <text>This is where the actual interpolation values are computed</text>
+  </threadedComment>
+  <threadedComment ref="P3" dT="2020-04-28T17:51:47.13" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{7964D26B-7869-490A-95E8-011C029BC8AD}" parentId="{578AB649-75F7-4B10-B4AC-34F5898D81D6}">
+    <text>The main linear interpolation formula is (cell-RangeMin)/(RangeMax-RangeMin)
+The rest of the formula is just a yes/no logic to get the right math for the right range. 
+E.g. If you're between 1 and 2. If you're at 1.1, you should be 0.9 weighted at 1, and 0.1 weighted at 2.</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2020-04-28T17:42:40.48" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{87FEA0A8-851D-4A20-9007-1A5DBE2E6731}">
+    <text>These values are changed to be validated as a 'decimal' value between $1 and $3</text>
+  </threadedComment>
+  <threadedComment ref="K12" dT="2020-04-28T17:55:50.84" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{9E5EF1E4-F899-4DBD-92D9-4CFC6136B367}">
+    <text>These labels are no longer used</text>
+  </threadedComment>
+  <threadedComment ref="G19" dT="2020-04-28T17:43:39.92" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{91D15411-16B7-4124-9999-DC9AD086B99C}">
+    <text>These values are no longer a lookup of the simulator page, they just reflect the values directly</text>
+  </threadedComment>
+  <threadedComment ref="D28" dT="2020-04-28T17:44:28.39" personId="{B43F80DE-5BC4-42F9-BF02-F4A5A51F091C}" id="{F3AE2629-A2DA-4580-A5E2-7063ECDD12B5}">
+    <text>These values are no longer a calculation from the values above, but refer directly to the interpolation calculations.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ40"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:AJ54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1264,13 +1536,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" s="18"/>
       <c r="J5" s="3"/>
@@ -1288,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>22</v>
@@ -1332,19 +1604,19 @@
       </c>
       <c r="E8" s="23">
         <f t="shared" ref="E8:H8" si="0">L30</f>
-        <v>0.10014505858603924</v>
+        <v>3.9402010210107016E-2</v>
       </c>
       <c r="F8" s="23">
         <f t="shared" si="0"/>
-        <v>0.10014505858603924</v>
+        <v>0.41193421261310592</v>
       </c>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
-        <v>0.10014505858603924</v>
+        <v>0.41193421261310592</v>
       </c>
       <c r="H8" s="24">
         <f t="shared" si="0"/>
-        <v>0.69956482424188227</v>
+        <v>0.13672956456368138</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4" t="s">
@@ -1581,15 +1853,15 @@
       </c>
       <c r="AA17">
         <f t="shared" ref="AA17:AD17" si="2">MMULT($N17:$W17,E$22:E$31)</f>
-        <v>-2.4597222188522565</v>
+        <v>-5.0133446917448072</v>
       </c>
       <c r="AB17">
         <f t="shared" si="2"/>
-        <v>-2.4597222188522565</v>
+        <v>2.6729114656705457</v>
       </c>
       <c r="AC17">
         <f t="shared" si="2"/>
-        <v>-2.4597222188522565</v>
+        <v>2.6729114656705457</v>
       </c>
       <c r="AD17">
         <f t="shared" si="2"/>
@@ -1600,13 +1872,13 @@
         <v>2.1655065030440102</v>
       </c>
       <c r="AG17">
-        <v>-2.4597222188522565</v>
+        <v>-5.0133446917448072</v>
       </c>
       <c r="AH17">
-        <v>-2.4597222188522565</v>
+        <v>2.6729114656705457</v>
       </c>
       <c r="AI17">
-        <v>-2.4597222188522565</v>
+        <v>2.6729114656705457</v>
       </c>
       <c r="AJ17">
         <v>-0.6637837060640166</v>
@@ -1625,15 +1897,15 @@
       </c>
       <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="5"/>
       <c r="J18" s="3"/>
@@ -1683,15 +1955,15 @@
       </c>
       <c r="AA18">
         <f t="shared" ref="AA18:AA26" si="4">MMULT($N18:$W18,E$22:E$31)</f>
-        <v>-3.7301032136062666</v>
+        <v>0.67950006690925324</v>
       </c>
       <c r="AB18">
         <f t="shared" ref="AB18:AB26" si="5">MMULT($N18:$W18,F$22:F$31)</f>
-        <v>-3.7301032136062666</v>
+        <v>3.4494710815804934</v>
       </c>
       <c r="AC18">
         <f t="shared" ref="AC18:AC26" si="6">MMULT($N18:$W18,G$22:G$31)</f>
-        <v>-3.7301032136062666</v>
+        <v>3.4494710815804934</v>
       </c>
       <c r="AD18">
         <f t="shared" ref="AD18:AD26" si="7">MMULT($N18:$W18,H$22:H$31)</f>
@@ -1701,13 +1973,13 @@
         <v>-3.2642260494919535</v>
       </c>
       <c r="AG18">
-        <v>-3.7301032136062666</v>
+        <v>0.67950006690925324</v>
       </c>
       <c r="AH18">
-        <v>-3.7301032136062666</v>
+        <v>3.4494710815804934</v>
       </c>
       <c r="AI18">
-        <v>-3.7301032136062666</v>
+        <v>3.4494710815804934</v>
       </c>
       <c r="AJ18">
         <v>1.545042404194124</v>
@@ -1726,7 +1998,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
@@ -1784,15 +2056,15 @@
       </c>
       <c r="AA19">
         <f t="shared" si="4"/>
-        <v>-0.64538814096457342</v>
+        <v>-3.6928801789529833</v>
       </c>
       <c r="AB19">
         <f t="shared" si="5"/>
-        <v>-0.64538814096457342</v>
+        <v>0.93041853545094089</v>
       </c>
       <c r="AC19">
         <f t="shared" si="6"/>
-        <v>-0.64538814096457342</v>
+        <v>0.93041853545094089</v>
       </c>
       <c r="AD19">
         <f t="shared" si="7"/>
@@ -1802,13 +2074,13 @@
         <v>3.1520726127137584</v>
       </c>
       <c r="AG19">
-        <v>-0.64538814096457342</v>
+        <v>-3.6928801789529833</v>
       </c>
       <c r="AH19">
-        <v>-0.64538814096457342</v>
+        <v>0.93041853545094089</v>
       </c>
       <c r="AI19">
-        <v>-0.64538814096457342</v>
+        <v>0.93041853545094089</v>
       </c>
       <c r="AJ19">
         <v>-1.6269166279206462</v>
@@ -1869,15 +2141,15 @@
       </c>
       <c r="AA20">
         <f t="shared" si="4"/>
-        <v>-2.5639469775368315</v>
+        <v>-0.97398332922544273</v>
       </c>
       <c r="AB20">
         <f t="shared" si="5"/>
-        <v>-2.5639469775368315</v>
+        <v>-0.50677767128312068</v>
       </c>
       <c r="AC20">
         <f t="shared" si="6"/>
-        <v>-2.5639469775368315</v>
+        <v>-0.50677767128312068</v>
       </c>
       <c r="AD20">
         <f t="shared" si="7"/>
@@ -1887,13 +2159,13 @@
         <v>-1.1309146538925812</v>
       </c>
       <c r="AG20">
-        <v>-2.5639469775368315</v>
+        <v>-0.97398332922544273</v>
       </c>
       <c r="AH20">
-        <v>-2.5639469775368315</v>
+        <v>-0.50677767128312068</v>
       </c>
       <c r="AI20">
-        <v>-2.5639469775368315</v>
+        <v>-0.50677767128312068</v>
       </c>
       <c r="AJ20">
         <v>-1.0034852923994482</v>
@@ -1964,15 +2236,15 @@
       </c>
       <c r="AA21">
         <f t="shared" si="4"/>
-        <v>-0.51906861734803478</v>
+        <v>-2.1327308214502176</v>
       </c>
       <c r="AB21">
         <f t="shared" si="5"/>
-        <v>-0.51906861734803478</v>
+        <v>3.4662040613747216</v>
       </c>
       <c r="AC21">
         <f t="shared" si="6"/>
-        <v>-0.51906861734803478</v>
+        <v>3.4662040613747216</v>
       </c>
       <c r="AD21">
         <f t="shared" si="7"/>
@@ -1982,13 +2254,13 @@
         <v>0.70914493701617154</v>
       </c>
       <c r="AG21">
-        <v>-0.51906861734803478</v>
+        <v>-2.1327308214502176</v>
       </c>
       <c r="AH21">
-        <v>-0.51906861734803478</v>
+        <v>3.4662040613747216</v>
       </c>
       <c r="AI21">
-        <v>-0.51906861734803478</v>
+        <v>3.4662040613747216</v>
       </c>
       <c r="AJ21">
         <v>1.8722463714826922</v>
@@ -2067,15 +2339,15 @@
       </c>
       <c r="AA22">
         <f t="shared" si="4"/>
-        <v>-2.3255853585076238</v>
+        <v>-1.8391270378108806</v>
       </c>
       <c r="AB22">
         <f t="shared" si="5"/>
-        <v>-2.3255853585076238</v>
+        <v>-0.69304481098351878</v>
       </c>
       <c r="AC22">
         <f t="shared" si="6"/>
-        <v>-2.3255853585076238</v>
+        <v>-0.69304481098351878</v>
       </c>
       <c r="AD22">
         <f t="shared" si="7"/>
@@ -2085,13 +2357,13 @@
         <v>1.0670652635370148E-2</v>
       </c>
       <c r="AG22">
-        <v>-2.3255853585076238</v>
+        <v>-1.8391270378108806</v>
       </c>
       <c r="AH22">
-        <v>-2.3255853585076238</v>
+        <v>-0.69304481098351878</v>
       </c>
       <c r="AI22">
-        <v>-2.3255853585076238</v>
+        <v>-0.69304481098351878</v>
       </c>
       <c r="AJ22">
         <v>1.5132259848662661</v>
@@ -2170,15 +2442,15 @@
       </c>
       <c r="AA23">
         <f t="shared" si="4"/>
-        <v>-1.8080108400898558</v>
+        <v>-3.006437480530435</v>
       </c>
       <c r="AB23">
         <f t="shared" si="5"/>
-        <v>-1.8080108400898558</v>
+        <v>3.0177344701309892</v>
       </c>
       <c r="AC23">
         <f t="shared" si="6"/>
-        <v>-1.8080108400898558</v>
+        <v>3.0177344701309892</v>
       </c>
       <c r="AD23">
         <f t="shared" si="7"/>
@@ -2188,13 +2460,13 @@
         <v>-0.70649362142948746</v>
       </c>
       <c r="AG23">
-        <v>-1.8080108400898558</v>
+        <v>-3.006437480530435</v>
       </c>
       <c r="AH23">
-        <v>-1.8080108400898558</v>
+        <v>3.0177344701309892</v>
       </c>
       <c r="AI23">
-        <v>-1.8080108400898558</v>
+        <v>3.0177344701309892</v>
       </c>
       <c r="AJ23">
         <v>1.5526881522266276</v>
@@ -2273,15 +2545,15 @@
       </c>
       <c r="AA24">
         <f t="shared" si="4"/>
-        <v>-5.2915370366790864</v>
+        <v>0.79310398867389553</v>
       </c>
       <c r="AB24">
         <f t="shared" si="5"/>
-        <v>-5.2915370366790864</v>
+        <v>2.856419038364657</v>
       </c>
       <c r="AC24">
         <f t="shared" si="6"/>
-        <v>-5.2915370366790864</v>
+        <v>2.856419038364657</v>
       </c>
       <c r="AD24">
         <f t="shared" si="7"/>
@@ -2291,13 +2563,13 @@
         <v>-3.3090084723616586</v>
       </c>
       <c r="AG24">
-        <v>-5.2915370366790864</v>
+        <v>0.79310398867389553</v>
       </c>
       <c r="AH24">
-        <v>-5.2915370366790864</v>
+        <v>2.856419038364657</v>
       </c>
       <c r="AI24">
-        <v>-5.2915370366790864</v>
+        <v>2.856419038364657</v>
       </c>
       <c r="AJ24">
         <v>0.63175942806813135</v>
@@ -2316,15 +2588,15 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -2376,15 +2648,15 @@
       </c>
       <c r="AA25">
         <f t="shared" si="4"/>
-        <v>-4.2642793484816668</v>
+        <v>1.0713749716661065</v>
       </c>
       <c r="AB25">
         <f t="shared" si="5"/>
-        <v>-4.2642793484816668</v>
+        <v>2.8101431111593635</v>
       </c>
       <c r="AC25">
         <f t="shared" si="6"/>
-        <v>-4.2642793484816668</v>
+        <v>2.8101431111593635</v>
       </c>
       <c r="AD25">
         <f t="shared" si="7"/>
@@ -2394,13 +2666,13 @@
         <v>-3.0165169140216612</v>
       </c>
       <c r="AG25">
-        <v>-4.2642793484816668</v>
+        <v>1.0713749716661065</v>
       </c>
       <c r="AH25">
-        <v>-4.2642793484816668</v>
+        <v>2.8101431111593635</v>
       </c>
       <c r="AI25">
-        <v>-4.2642793484816668</v>
+        <v>2.8101431111593635</v>
       </c>
       <c r="AJ25">
         <v>-0.5631515597305885</v>
@@ -2419,7 +2691,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="8"/>
@@ -2479,15 +2751,15 @@
       </c>
       <c r="AA26">
         <f t="shared" si="4"/>
-        <v>1.3334129813980584</v>
+        <v>-3.8317057614362291</v>
       </c>
       <c r="AB26">
         <f t="shared" si="5"/>
-        <v>1.3334129813980584</v>
+        <v>5.7870651661631083</v>
       </c>
       <c r="AC26">
         <f t="shared" si="6"/>
-        <v>1.3334129813980584</v>
+        <v>5.7870651661631083</v>
       </c>
       <c r="AD26">
         <f t="shared" si="7"/>
@@ -2497,13 +2769,13 @@
         <v>1.9168243197048764</v>
       </c>
       <c r="AG26">
-        <v>1.3334129813980584</v>
+        <v>-3.8317057614362291</v>
       </c>
       <c r="AH26">
-        <v>1.3334129813980584</v>
+        <v>5.7870651661631083</v>
       </c>
       <c r="AI26">
-        <v>1.3334129813980584</v>
+        <v>5.7870651661631083</v>
       </c>
       <c r="AJ26">
         <v>-0.21827878736915185</v>
@@ -2526,11 +2798,11 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -2551,7 +2823,7 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="8"/>
@@ -2603,7 +2875,7 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="8"/>
@@ -2638,20 +2910,20 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>8.5458686482545052E-2</v>
+        <v>6.6486284630441856E-3</v>
       </c>
       <c r="AB29">
-        <v>8.5458686482545052E-2</v>
+        <v>14.482071927984745</v>
       </c>
       <c r="AC29">
-        <v>8.5458686482545052E-2</v>
+        <v>14.482071927984745</v>
       </c>
       <c r="AD29">
         <v>0.51489941603474731</v>
       </c>
       <c r="AF29">
         <f>SUM(Z29:AD29)</f>
-        <v>0.77127547548238251</v>
+        <v>29.48569190046728</v>
       </c>
     </row>
     <row r="30" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2685,39 +2957,44 @@
         <v>17</v>
       </c>
       <c r="K30" s="10">
-        <f t="array" ref="K30:O30">MMULT(TRANSPOSE(RespondentInclude),(EXP(MMULT(Utilities,Design))*MMULT(RespondentInclude,ProductInclude))/(MMULT(EXP(MMULT(Utilities,Design)),TRANSPOSE(ProductInclude))))/SUM(RespondentInclude)</f>
+        <f t="array" ref="K30:O30">MMULT(TRANSPOSE(RespondentInclude),
+                   (EXP(MMULT(Utilities,Design))*
+                     MMULT(RespondentInclude,ProductInclude))/
+                   (MMULT(EXP(MMULT(Utilities,Design)),
+                                      TRANSPOSE(ProductInclude))))
+/SUM(RespondentInclude)</f>
         <v>0</v>
       </c>
       <c r="L30" s="10">
-        <v>0.10014505858603924</v>
+        <v>3.9402010210107016E-2</v>
       </c>
       <c r="M30" s="10">
-        <v>0.10014505858603924</v>
+        <v>0.41193421261310592</v>
       </c>
       <c r="N30" s="10">
-        <v>0.10014505858603924</v>
+        <v>0.41193421261310592</v>
       </c>
       <c r="O30" s="9">
-        <v>0.69956482424188227</v>
+        <v>0.13672956456368138</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>2.3990359577391932E-2</v>
+        <v>1.9728911720626021</v>
       </c>
       <c r="AB30">
-        <v>2.3990359577391932E-2</v>
+        <v>31.48373557644873</v>
       </c>
       <c r="AC30">
-        <v>2.3990359577391932E-2</v>
+        <v>31.48373557644873</v>
       </c>
       <c r="AD30">
         <v>4.6881704208957506</v>
       </c>
       <c r="AF30">
         <f t="shared" ref="AF30:AF38" si="10">SUM(Z30:AD30)</f>
-        <v>4.7601414996279265</v>
+        <v>69.628532745855807</v>
       </c>
     </row>
     <row r="31" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2743,20 +3020,20 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.52445893859741144</v>
+        <v>2.4900181684969283E-2</v>
       </c>
       <c r="AB31">
-        <v>0.52445893859741144</v>
+        <v>2.5355701815778202</v>
       </c>
       <c r="AC31">
-        <v>0.52445893859741144</v>
+        <v>2.5355701815778202</v>
       </c>
       <c r="AD31">
         <v>0.19653463023247825</v>
       </c>
       <c r="AF31">
         <f t="shared" si="10"/>
-        <v>1.7699114460247125</v>
+        <v>5.2925751750730887</v>
       </c>
     </row>
     <row r="32" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2765,23 +3042,23 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>7.7000221728874108E-2</v>
+        <v>0.37757602900816911</v>
       </c>
       <c r="AB32">
-        <v>7.7000221728874108E-2</v>
+        <v>0.60243369390517321</v>
       </c>
       <c r="AC32">
-        <v>7.7000221728874108E-2</v>
+        <v>0.60243369390517321</v>
       </c>
       <c r="AD32">
         <v>0.36659950552185255</v>
       </c>
       <c r="AF32">
         <f t="shared" si="10"/>
-        <v>0.59760017070847482</v>
-      </c>
-    </row>
-    <row r="33" spans="10:32" x14ac:dyDescent="0.25">
+        <v>1.949042922340368</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="J33" s="11" t="s">
         <v>28</v>
       </c>
@@ -2794,23 +3071,23 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.59507453204033967</v>
+        <v>0.11851321312597091</v>
       </c>
       <c r="AB33">
-        <v>0.59507453204033967</v>
+        <v>32.014984581706365</v>
       </c>
       <c r="AC33">
-        <v>0.59507453204033967</v>
+        <v>32.014984581706365</v>
       </c>
       <c r="AD33">
         <v>6.5028879061257969</v>
       </c>
       <c r="AF33">
         <f t="shared" si="10"/>
-        <v>8.2881115022468155</v>
-      </c>
-    </row>
-    <row r="34" spans="10:32" x14ac:dyDescent="0.25">
+        <v>70.651370282664502</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
         <v>6</v>
@@ -2831,23 +3108,23 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>9.7726222429685261E-2</v>
+        <v>0.15895612824693889</v>
       </c>
       <c r="AB34">
-        <v>9.7726222429685261E-2</v>
+        <v>0.50005118740818522</v>
       </c>
       <c r="AC34">
-        <v>9.7726222429685261E-2</v>
+        <v>0.50005118740818522</v>
       </c>
       <c r="AD34">
         <v>4.5413575394946522</v>
       </c>
       <c r="AF34">
         <f t="shared" si="10"/>
-        <v>4.8345362067837083</v>
-      </c>
-    </row>
-    <row r="35" spans="10:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.7004160425579613</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="7" t="s">
         <v>17</v>
       </c>
@@ -2856,129 +3133,561 @@
         <v>0</v>
       </c>
       <c r="L35" s="10">
-        <v>0.10014505858603924</v>
+        <v>3.9402010210107016E-2</v>
       </c>
       <c r="M35" s="10">
-        <v>0.10014505858603924</v>
+        <v>0.41193421261310592</v>
       </c>
       <c r="N35" s="10">
-        <v>0.10014505858603924</v>
+        <v>0.41193421261310592</v>
       </c>
       <c r="O35" s="9">
-        <v>0.69956482424188227</v>
+        <v>0.13672956456368138</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.16397999503538252</v>
+        <v>4.9467594491288389E-2</v>
       </c>
       <c r="AB35">
-        <v>0.16397999503538252</v>
+        <v>20.444920598201758</v>
       </c>
       <c r="AC35">
-        <v>0.16397999503538252</v>
+        <v>20.444920598201758</v>
       </c>
       <c r="AD35">
         <v>4.7241523698407484</v>
       </c>
       <c r="AF35">
         <f t="shared" si="10"/>
-        <v>5.2160923549468956</v>
-      </c>
-    </row>
-    <row r="36" spans="10:32" x14ac:dyDescent="0.25">
+        <v>45.663461160735551</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>5.0340168417278633E-3</v>
+        <v>2.210246369380287</v>
       </c>
       <c r="AB36">
-        <v>5.0340168417278633E-3</v>
+        <v>17.399109702086136</v>
       </c>
       <c r="AC36">
-        <v>5.0340168417278633E-3</v>
+        <v>17.399109702086136</v>
       </c>
       <c r="AD36">
         <v>1.8809170078772297</v>
       </c>
       <c r="AF36">
         <f t="shared" si="10"/>
-        <v>1.8960190584024132</v>
-      </c>
-    </row>
-    <row r="37" spans="10:32" x14ac:dyDescent="0.25">
+        <v>38.889382781429788</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="K37" cm="1">
+        <f t="array" ref="K37:O37">MMULT(TRANSPOSE(RespondentInclude),
+                   (EXP(MMULT(Utilities,Design))*
+                     MMULT(RespondentInclude,ProductInclude))/
+                   (MMULT(EXP(MMULT(Utilities,Design)),
+                                      TRANSPOSE(ProductInclude))))
+/SUM(RespondentInclude)</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>3.9402010210107016E-2</v>
+      </c>
+      <c r="M37">
+        <v>0.41193421261310592</v>
+      </c>
+      <c r="N37">
+        <v>0.41193421261310592</v>
+      </c>
+      <c r="O37">
+        <v>0.13672956456368138</v>
+      </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1.4061997282146129E-2</v>
+        <v>2.9193908212800146</v>
       </c>
       <c r="AB37">
-        <v>1.4061997282146129E-2</v>
+        <v>16.612295453540277</v>
       </c>
       <c r="AC37">
-        <v>1.4061997282146129E-2</v>
+        <v>16.612295453540277</v>
       </c>
       <c r="AD37">
         <v>0.56941169810585879</v>
       </c>
       <c r="AF37">
         <f t="shared" si="10"/>
-        <v>0.61159768995229713</v>
-      </c>
-    </row>
-    <row r="38" spans="10:32" x14ac:dyDescent="0.25">
+        <v>36.713393426466432</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>3.7939700650226804</v>
+        <v>2.167261577015003E-2</v>
       </c>
       <c r="AB38">
-        <v>3.7939700650226804</v>
+        <v>326.05470243261652</v>
       </c>
       <c r="AC38">
-        <v>3.7939700650226804</v>
+        <v>326.05470243261652</v>
       </c>
       <c r="AD38">
         <v>0.80390129289658407</v>
       </c>
       <c r="AF38">
         <f t="shared" si="10"/>
-        <v>12.185811487964624</v>
-      </c>
-    </row>
-    <row r="40" spans="10:32" x14ac:dyDescent="0.25">
+        <v>652.93497877389984</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="Z40">
         <f t="array" ref="Z40">AVERAGE(Z29:Z38/$AF$29:$AF$38)</f>
         <v>0</v>
       </c>
       <c r="AA40">
         <f t="array" ref="AA40">AVERAGE(AA29:AA38/$AF$29:$AF$38)</f>
-        <v>0.10014505858603924</v>
+        <v>3.9402010210107016E-2</v>
       </c>
       <c r="AB40">
         <f t="array" ref="AB40">AVERAGE(AB29:AB38/$AF$29:$AF$38)</f>
-        <v>0.10014505858603924</v>
+        <v>0.41193421261310592</v>
       </c>
       <c r="AC40">
         <f t="array" ref="AC40">AVERAGE(AC29:AC38/$AF$29:$AF$38)</f>
-        <v>0.10014505858603924</v>
+        <v>0.41193421261310592</v>
       </c>
       <c r="AD40">
         <f t="array" ref="AD40">AVERAGE(AD29:AD38/$AF$29:$AF$38)</f>
-        <v>0.69956482424188227</v>
+        <v>0.13672956456368138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C45" cm="1">
+        <f t="array" ref="C45:G54">EXP(MMULT(Utilities,Design))*MMULT(RespondentInclude,ProductInclude)</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>6.6486284630441856E-3</v>
+      </c>
+      <c r="E45">
+        <v>14.482071927984745</v>
+      </c>
+      <c r="F45">
+        <v>14.482071927984745</v>
+      </c>
+      <c r="G45">
+        <v>0.51489941603474731</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" aca="1" ref="L45:P54" ca="1">(--(ABS(rng-SUBTOTAL(4,OFFSET(INDEX(rng,1,1),ROW(rng)-MIN(ROW(rng)),,,COLUMNS(rng))))&lt;0.000001))</f>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R45" cm="1">
+        <f t="array" aca="1" ref="R45:V45" ca="1">MMULT(TRANSPOSE(RespondentInclude),
+                   ((--(ABS(rng-SUBTOTAL(4,OFFSET(INDEX(rng,1,1),ROW(rng)-MIN(ROW(rng)),,,COLUMNS(rng))))&lt;0.000001)))/
+                   (MMULT((--(ABS(rng-SUBTOTAL(4,OFFSET(INDEX(rng,1,1),ROW(rng)-MIN(ROW(rng)),,,COLUMNS(rng))))&lt;0.000001)),
+                                      TRANSPOSE(ProductInclude))))
+/SUM(RespondentInclude)</f>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f ca="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="U45">
+        <f ca="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="V45">
+        <f ca="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1.9728911720626021</v>
+      </c>
+      <c r="E46">
+        <v>31.48373557644873</v>
+      </c>
+      <c r="F46">
+        <v>31.48373557644873</v>
+      </c>
+      <c r="G46">
+        <v>4.6881704208957506</v>
+      </c>
+      <c r="L46">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>2.4900181684969283E-2</v>
+      </c>
+      <c r="E47">
+        <v>2.5355701815778202</v>
+      </c>
+      <c r="F47">
+        <v>2.5355701815778202</v>
+      </c>
+      <c r="G47">
+        <v>0.19653463023247825</v>
+      </c>
+      <c r="L47">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0.37757602900816911</v>
+      </c>
+      <c r="E48">
+        <v>0.60243369390517321</v>
+      </c>
+      <c r="F48">
+        <v>0.60243369390517321</v>
+      </c>
+      <c r="G48">
+        <v>0.36659950552185255</v>
+      </c>
+      <c r="L48">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.11851321312597091</v>
+      </c>
+      <c r="E49">
+        <v>32.014984581706365</v>
+      </c>
+      <c r="F49">
+        <v>32.014984581706365</v>
+      </c>
+      <c r="G49">
+        <v>6.5028879061257969</v>
+      </c>
+      <c r="L49">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0.15895612824693889</v>
+      </c>
+      <c r="E50">
+        <v>0.50005118740818522</v>
+      </c>
+      <c r="F50">
+        <v>0.50005118740818522</v>
+      </c>
+      <c r="G50">
+        <v>4.5413575394946522</v>
+      </c>
+      <c r="L50">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>4.9467594491288389E-2</v>
+      </c>
+      <c r="E51">
+        <v>20.444920598201758</v>
+      </c>
+      <c r="F51">
+        <v>20.444920598201758</v>
+      </c>
+      <c r="G51">
+        <v>4.7241523698407484</v>
+      </c>
+      <c r="L51">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>2.210246369380287</v>
+      </c>
+      <c r="E52">
+        <v>17.399109702086136</v>
+      </c>
+      <c r="F52">
+        <v>17.399109702086136</v>
+      </c>
+      <c r="G52">
+        <v>1.8809170078772297</v>
+      </c>
+      <c r="L52">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>2.9193908212800146</v>
+      </c>
+      <c r="E53">
+        <v>16.612295453540277</v>
+      </c>
+      <c r="F53">
+        <v>16.612295453540277</v>
+      </c>
+      <c r="G53">
+        <v>0.56941169810585879</v>
+      </c>
+      <c r="L53">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>2.167261577015003E-2</v>
+      </c>
+      <c r="E54">
+        <v>326.05470243261652</v>
+      </c>
+      <c r="F54">
+        <v>326.05470243261652</v>
+      </c>
+      <c r="G54">
+        <v>0.80390129289658407</v>
+      </c>
+      <c r="L54">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <f ca="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D3:H3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Exclude"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Include"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3007,11 +3716,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518676DD-3237-42B0-8755-C398811B1202}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3167,7 +3882,7 @@
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="14" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D6" s="31">
         <v>1.01</v>
@@ -3422,7 +4137,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:G19" si="5">VLOOKUP(D4,$K$6:$L$14,2,0)</f>
+        <f t="shared" ref="D17:G18" si="5">VLOOKUP(D4,$K$6:$L$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="E17" s="4">
@@ -3734,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" ref="E22:G30" si="7">1*(VLOOKUP($B22,$B$17:$G$19,E$21+2,0)=$C22)</f>
+        <f t="shared" ref="E22:G27" si="7">1*(VLOOKUP($B22,$B$17:$G$19,E$21+2,0)=$C22)</f>
         <v>1</v>
       </c>
       <c r="F22" s="4">
@@ -3798,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:D30" si="8">1*(VLOOKUP($B23,$B$17:$G$19,D$21+2,0)=$C23)</f>
+        <f t="shared" ref="D23:D27" si="8">1*(VLOOKUP($B23,$B$17:$G$19,D$21+2,0)=$C23)</f>
         <v>1</v>
       </c>
       <c r="E23" s="4">
@@ -4203,7 +4918,12 @@
         <v>17</v>
       </c>
       <c r="K30" s="10">
-        <f t="array" ref="K30:O30">MMULT(TRANSPOSE(InterpolationRespondentInclude),(EXP(MMULT(InterpolationUtilities,InterpolationDesign))*MMULT(InterpolationRespondentInclude,InterpolationProductInclude))/(MMULT(EXP(MMULT(InterpolationUtilities,InterpolationDesign)),TRANSPOSE(InterpolationProductInclude))))/SUM(InterpolationRespondentInclude)</f>
+        <f t="array" ref="K30:O30">MMULT(TRANSPOSE(InterpolationRespondentInclude),
+                    (EXP(MMULT(InterpolationUtilities,InterpolationDesign))*
+                     MMULT(InterpolationRespondentInclude,InterpolationProductInclude)) /
+                           (MMULT(EXP(MMULT(InterpolationUtilities,InterpolationDesign)),TRANSPOSE(InterpolationProductInclude)))
+                   )
+/SUM(InterpolationRespondentInclude)</f>
         <v>0</v>
       </c>
       <c r="L30" s="10">
@@ -4293,14 +5013,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:H3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Exclude"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Include"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:H3" xr:uid="{8D818C83-2CB3-40EE-AF09-6EDEE6A074F8}">
       <formula1>$K$4:$K$5</formula1>
     </dataValidation>
@@ -4318,4 +5038,2832 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F82558-7D98-4BE1-A699-9A4D5D7DB2A5}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S6" sqref="P4:S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1">
+        <f>D6</f>
+        <v>1.01</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" ref="Q2:S2" si="0">E6</f>
+        <v>1.99</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4" cm="1">
+        <f t="array" ref="P3">MIN(MATCH(LARGE(IF(Interp1Levels&lt;=INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1),Interp1Levels),1),Interp1Levels,0),ROWS(Interp1Levels)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" cm="1">
+        <f t="array" ref="Q3">MIN(MATCH(LARGE(IF(Interp1Levels&lt;=INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1),Interp1Levels),1),Interp1Levels,0),ROWS(Interp1Levels)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="4" cm="1">
+        <f t="array" ref="R3">MIN(MATCH(LARGE(IF(Interp1Levels&lt;=INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1),Interp1Levels),1),Interp1Levels,0),ROWS(Interp1Levels)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="S3" s="5" cm="1">
+        <f t="array" ref="S3">MIN(MATCH(LARGE(IF(Interp1Levels&lt;=INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1),Interp1Levels),1),Interp1Levels,0),ROWS(Interp1Levels)-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="O4" s="35">
+        <v>1</v>
+      </c>
+      <c r="P4" s="29" cm="1">
+        <f t="array" ref="P4">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0.99</v>
+      </c>
+      <c r="Q4" s="29" cm="1">
+        <f t="array" ref="Q4">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="R4" s="29" cm="1">
+        <f t="array" ref="R4">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="32" cm="1">
+        <f t="array" ref="S4">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="O5" s="35">
+        <v>2</v>
+      </c>
+      <c r="P5" s="29" cm="1">
+        <f t="array" ref="P5">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="Q5" s="29" cm="1">
+        <f t="array" ref="Q5">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0.99</v>
+      </c>
+      <c r="R5" s="29" cm="1">
+        <f t="array" ref="R5">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0.25</v>
+      </c>
+      <c r="S5" s="32" cm="1">
+        <f t="array" ref="S5">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1.01</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1.99</v>
+      </c>
+      <c r="F6" s="31">
+        <v>2.75</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="36">
+        <v>3</v>
+      </c>
+      <c r="P6" s="33" cm="1">
+        <f t="array" ref="P6">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="33" cm="1">
+        <f t="array" ref="Q6">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="33" cm="1">
+        <f t="array" ref="R6">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="S6" s="34" cm="1">
+        <f t="array" ref="S6">(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1))*
+(1-
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)
++
+(ROW()-ROW(INDEX(Interp1,1,1))-1=INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)*
+(
+    (INDEX(Interp1,1,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)                                                  -INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))/
+    (INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)+1)-INDEX(Interp1Levels,INDEX(Interp1,2,COLUMN()-COLUMN(INDEX(Interp1,1,1))+1)))
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23">
+        <f>K30</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <f>L30</f>
+        <v>2.2601760047096506E-2</v>
+      </c>
+      <c r="F8" s="23">
+        <f>M30</f>
+        <v>6.5908174779918133E-3</v>
+      </c>
+      <c r="G8" s="23">
+        <f>N30</f>
+        <v>6.3963420016667188E-2</v>
+      </c>
+      <c r="H8" s="24">
+        <f>O30</f>
+        <v>0.9068440024582447</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="7"/>
+      <c r="K14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <f>1*(D3="Include")</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f>1*(E3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f>1*(F3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1*(G3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <f>1*(H3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X16" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:G18" si="1">VLOOKUP(D4,$K$6:$L$14,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>-3.6234906809517637</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1.0017380409445025</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2.6217526400072613</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>-2.1595092491668759</v>
+      </c>
+      <c r="R17" s="4">
+        <v>-0.81361518618904993</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2.9731244353559259</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3.3232777112663836</v>
+      </c>
+      <c r="U17" s="4">
+        <v>-0.57623882460399356</v>
+      </c>
+      <c r="V17" s="4">
+        <v>-2.74703888666239</v>
+      </c>
+      <c r="W17" s="5">
+        <v>-0.6637837060640166</v>
+      </c>
+      <c r="X17" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-0.80942405210077695</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-0.34354688798646382</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1.1529709400872408</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-4.5389422159422264</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1.8983101366976927</v>
+      </c>
+      <c r="S18" s="4">
+        <v>2.6406320792445337</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1.6182630544367367</v>
+      </c>
+      <c r="U18" s="4">
+        <v>-0.40938601768766247</v>
+      </c>
+      <c r="V18" s="4">
+        <v>-1.2088770367490742</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1.545042404194124</v>
+      </c>
+      <c r="X18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="30">
+        <f>D6</f>
+        <v>1.01</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" ref="E19:G19" si="2">E6</f>
+        <v>1.99</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="G19" s="30">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>-2.7382290409865537</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1.0592317126917781</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.6789973282947757</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-0.73895587578903932</v>
+      </c>
+      <c r="R19" s="4">
+        <v>-9.7894924837435671E-2</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.83685080062647499</v>
+      </c>
+      <c r="T19" s="4">
+        <v>2.8317967758110196</v>
+      </c>
+      <c r="U19" s="4">
+        <v>-0.85675621312899386</v>
+      </c>
+      <c r="V19" s="4">
+        <v>-1.9750405626820255</v>
+      </c>
+      <c r="W19" s="5">
+        <v>-1.6269166279206462</v>
+      </c>
+      <c r="X19" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>4</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>-1.9956515376533084</v>
+      </c>
+      <c r="O20" s="4">
+        <v>-0.56261921400905801</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.5582707516623664</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>-1.2301553514877654</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.40314139672182003</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.82701395476594541</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0.66185991160424229</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0.61852681170604562</v>
+      </c>
+      <c r="V20" s="4">
+        <v>-1.2803867233102879</v>
+      </c>
+      <c r="W20" s="5">
+        <v>-1.0034852923994482</v>
+      </c>
+      <c r="X20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>-1.4604352378315344</v>
+      </c>
+      <c r="O21" s="4">
+        <v>-0.23222168346732808</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1.6926569212988625</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>-1.8158593763926805</v>
+      </c>
+      <c r="R21" s="4">
+        <v>-0.35355392593739565</v>
+      </c>
+      <c r="S21" s="4">
+        <v>2.1694133023300761</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2.7572259968761799</v>
+      </c>
+      <c r="U21" s="4">
+        <v>-0.31874165768128737</v>
+      </c>
+      <c r="V21" s="4">
+        <v>-2.4384843391948925</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1.8722463714826922</v>
+      </c>
+      <c r="X21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <f>1*(VLOOKUP($B22,$B$17:$G$19,D$21+2,0)=$C22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:G27" si="3">1*(VLOOKUP($B22,$B$17:$G$19,E$21+2,0)=$C22)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>6</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>-2.2838712058546169</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5.2384805288376857E-2</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2.23148640056624</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>-0.72781888837503406</v>
+      </c>
+      <c r="R22" s="4">
+        <v>-0.17690277077403671</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.90472165914907077</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0.68610473572202735</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0.621646938817773</v>
+      </c>
+      <c r="V22" s="4">
+        <v>-1.3077516745398003</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1.5132259848662661</v>
+      </c>
+      <c r="X22" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:D27" si="4">1*(VLOOKUP($B23,$B$17:$G$19,D$21+2,0)=$C23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>7</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>-1.459969830214795</v>
+      </c>
+      <c r="O23" s="4">
+        <v>-0.35845261155442687</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1.8184224417692219</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>-1.9692163349254073</v>
+      </c>
+      <c r="R23" s="4">
+        <v>-0.88731264037003044</v>
+      </c>
+      <c r="S23" s="4">
+        <v>2.8565289752954377</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1.6211753250503467</v>
+      </c>
+      <c r="U23" s="4">
+        <v>-0.65915500994560983</v>
+      </c>
+      <c r="V23" s="4">
+        <v>-0.96202031510473685</v>
+      </c>
+      <c r="W23" s="5">
+        <v>1.5526881522266276</v>
+      </c>
+      <c r="X23" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <v>8</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <v>-1.569385126102139</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.41314343821528876</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1.1562416878868502</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>-5.1515062573876893</v>
+      </c>
+      <c r="R24" s="4">
+        <v>2.1550564397316352</v>
+      </c>
+      <c r="S24" s="4">
+        <v>2.9964498176560541</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1.4293543468107419</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.20743267504439933</v>
+      </c>
+      <c r="V24" s="4">
+        <v>-1.6367870218551412</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0.63175942806813135</v>
+      </c>
+      <c r="X24" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <v>9</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>-1.033203933479321</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.21455850098068496</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.81864543249863608</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>-4.6348456913410887</v>
+      </c>
+      <c r="R25" s="4">
+        <v>2.1952689230411471</v>
+      </c>
+      <c r="S25" s="4">
+        <v>2.4395767682999416</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1.403770276338743</v>
+      </c>
+      <c r="U25" s="4">
+        <v>-9.069001789571951E-2</v>
+      </c>
+      <c r="V25" s="4">
+        <v>-1.3130802584430235</v>
+      </c>
+      <c r="W25" s="5">
+        <v>-0.5631515597305885</v>
+      </c>
+      <c r="X25" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10">
+        <v>10</v>
+      </c>
+      <c r="M26" s="10">
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
+        <v>-1.5026211672830621</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-0.91920982897624404</v>
+      </c>
+      <c r="P26" s="10">
+        <v>2.4218309962593061</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>-2.0418334227990425</v>
+      </c>
+      <c r="R26" s="10">
+        <v>-0.36998533916696497</v>
+      </c>
+      <c r="S26" s="10">
+        <v>2.4118187619660074</v>
+      </c>
+      <c r="T26" s="10">
+        <v>4.8778675714801629</v>
+      </c>
+      <c r="U26" s="10">
+        <v>-1.9590992549862021</v>
+      </c>
+      <c r="V26" s="10">
+        <v>-2.9187683164939608</v>
+      </c>
+      <c r="W26" s="9">
+        <v>-0.21827878736915185</v>
+      </c>
+      <c r="X26" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="X27" s="25"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29">
+        <f t="shared" ref="D28:G30" si="5">P4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="X28" s="25"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="29">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="5"/>
+        <v>0.99</v>
+      </c>
+      <c r="F29" s="29">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="29">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="array" ref="K30:O30">MMULT(TRANSPOSE(InterpolationRespondentInclude),
+                    (EXP(MMULT(InterpolationUtilities,InterpolationDesign))*
+                     MMULT(InterpolationRespondentInclude,InterpolationProductInclude)) /
+                           (MMULT(EXP(MMULT(InterpolationUtilities,InterpolationDesign)),TRANSPOSE(InterpolationProductInclude)))
+                   )
+/SUM(InterpolationRespondentInclude)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="10">
+        <v>2.2601760047096506E-2</v>
+      </c>
+      <c r="M30" s="10">
+        <v>6.5908174779918133E-3</v>
+      </c>
+      <c r="N30" s="10">
+        <v>6.3963420016667188E-2</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0.9068440024582447</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+      <c r="K34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="array" ref="K35:O35">MMULT(TRANSPOSE(InterpolationRespondentInclude*InterpolationWeights),(EXP(MMULT(InterpolationUtilities,InterpolationDesign))*MMULT(InterpolationRespondentInclude,InterpolationProductInclude))/(MMULT(EXP(MMULT(InterpolationUtilities,InterpolationDesign)),TRANSPOSE(InterpolationProductInclude))))/SUM(InterpolationRespondentInclude*InterpolationWeights)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>2.2601760047096506E-2</v>
+      </c>
+      <c r="M35" s="10">
+        <v>6.5908174779918133E-3</v>
+      </c>
+      <c r="N35" s="10">
+        <v>6.3963420016667188E-2</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0.9068440024582447</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:H3">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Exclude"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Include"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:G4" xr:uid="{55737061-8A66-48F8-A91B-FA1FF5A5235D}">
+      <formula1>$K$6:$K$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:G5" xr:uid="{BC08A265-6A5C-444F-99E5-03106F37F1E1}">
+      <formula1>$K$9:$K$11</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6" xr:uid="{4376AE1C-4E13-4F67-991B-5998F31A943D}">
+      <formula1>1</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:H3" xr:uid="{B6066DB5-D4CA-429C-9F6E-456A3660DA92}">
+      <formula1>$K$4:$K$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148FBDAB-2F3B-42B6-A028-8AB1ADD7F301}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1">
+        <f>D6</f>
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" ref="Q2:S2" si="0">E6</f>
+        <v>1.99</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="O3" s="35">
+        <v>1</v>
+      </c>
+      <c r="P3" s="29" cm="1">
+        <f t="array" ref="P3:P5">MMULT(--(_xlfn.SEQUENCE(COUNT(Interp1Levels))=TRANSPOSE(_xlfn.SEQUENCE(2,1,MEDIAN(1,COUNT(Interp1Levels)-1,SUM(--(Interp1Levels&lt;=P2)))))),MMULT(TRANSPOSE(MINVERSE({1,0;1,0}+{0,1;0,1}*INDEX(Interp1Levels,_xlfn.SEQUENCE(2,1,MEDIAN(1,COUNT(Interp1Levels)-1,SUM(--(Interp1Levels&lt;=P2))))))),{1;0}+P2*{0;1}))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="29" cm="1">
+        <f t="array" ref="Q3:Q5">MMULT(--(_xlfn.SEQUENCE(COUNT(Interp1Levels))=TRANSPOSE(_xlfn.SEQUENCE(2,1,MEDIAN(1,COUNT(Interp1Levels)-1,SUM(--(Interp1Levels&lt;=Q2)))))),MMULT(TRANSPOSE(MINVERSE({1,0;1,0}+{0,1;0,1}*INDEX(Interp1Levels,_xlfn.SEQUENCE(2,1,MEDIAN(1,COUNT(Interp1Levels)-1,SUM(--(Interp1Levels&lt;=Q2))))))),{1;0}+Q2*{0;1}))</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="R3" s="29" cm="1">
+        <f t="array" ref="R3:R5">MMULT(--(_xlfn.SEQUENCE(COUNT(Interp1Levels))=TRANSPOSE(_xlfn.SEQUENCE(2,1,MEDIAN(1,COUNT(Interp1Levels)-1,SUM(--(Interp1Levels&lt;=R2)))))),MMULT(TRANSPOSE(MINVERSE({1,0;1,0}+{0,1;0,1}*INDEX(Interp1Levels,_xlfn.SEQUENCE(2,1,MEDIAN(1,COUNT(Interp1Levels)-1,SUM(--(Interp1Levels&lt;=R2))))))),{1;0}+R2*{0;1}))</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="32" cm="1">
+        <f t="array" ref="S3:S5">MMULT(--(_xlfn.SEQUENCE(COUNT(Interp1Levels))=TRANSPOSE(_xlfn.SEQUENCE(2,1,MEDIAN(1,COUNT(Interp1Levels)-1,SUM(--(Interp1Levels&lt;=S2)))))),MMULT(TRANSPOSE(MINVERSE({1,0;1,0}+{0,1;0,1}*INDEX(Interp1Levels,_xlfn.SEQUENCE(2,1,MEDIAN(1,COUNT(Interp1Levels)-1,SUM(--(Interp1Levels&lt;=S2))))))),{1;0}+S2*{0;1}))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="O4" s="35">
+        <v>2</v>
+      </c>
+      <c r="P4" s="29">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>0.99</v>
+      </c>
+      <c r="R4" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="S4" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="O5" s="36">
+        <v>3</v>
+      </c>
+      <c r="P5" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>0</v>
+      </c>
+      <c r="R5" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="31">
+        <v>4</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1.99</v>
+      </c>
+      <c r="F6" s="31">
+        <v>2.75</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23">
+        <f>K30</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <f>L30</f>
+        <v>2.2601760047096506E-2</v>
+      </c>
+      <c r="F8" s="23">
+        <f>M30</f>
+        <v>6.5908174779918133E-3</v>
+      </c>
+      <c r="G8" s="23">
+        <f>N30</f>
+        <v>6.3963420016667188E-2</v>
+      </c>
+      <c r="H8" s="24">
+        <f>O30</f>
+        <v>0.9068440024582447</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2</v>
+      </c>
+      <c r="P10" cm="1">
+        <f t="array" ref="P10:P12">_xlfn.LET(_xlpm.priceToInterpolate,P2,
+           _xlpm.Prices,Interp1Levels,
+           _xlpm.nPrices,COUNT(_xlpm.Prices),
+           _xlpm.priceLevelRange,_xlfn.SEQUENCE(2,1,MEDIAN(1,_xlpm.nPrices-1,SUM(--(_xlpm.Prices&lt;=_xlpm.priceToInterpolate)))),
+           MMULT(--(_xlfn.SEQUENCE(_xlpm.nPrices)=TRANSPOSE(_xlpm.priceLevelRange)),
+                            MMULT(TRANSPOSE(MINVERSE({1,0;1,0}+{0,1;0,1}*INDEX(_xlpm.Prices,_xlpm.priceLevelRange))),
+                                             {1;0}+_xlpm.priceToInterpolate*{0;1})))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" cm="1">
+        <f t="array" ref="Q10:Q12">_xlfn.LET(_xlpm.priceToInterpolate,Q2,
+           _xlpm.Prices,Interp1Levels,
+           _xlpm.nPrices,COUNT(_xlpm.Prices),
+           _xlpm.priceLevelRange,_xlfn.SEQUENCE(2,1,MEDIAN(1,_xlpm.nPrices-1,SUM(--(_xlpm.Prices&lt;=_xlpm.priceToInterpolate)))),
+           MMULT(--(_xlfn.SEQUENCE(_xlpm.nPrices)=TRANSPOSE(_xlpm.priceLevelRange)),
+                            MMULT(TRANSPOSE(MINVERSE({1,0;1,0}+{0,1;0,1}*INDEX(_xlpm.Prices,_xlpm.priceLevelRange))),
+                                             {1;0}+_xlpm.priceToInterpolate*{0;1})))</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="R10" cm="1">
+        <f t="array" ref="R10:R12">_xlfn.LET(_xlpm.priceToInterpolate,R2,
+           _xlpm.Prices,Interp1Levels,
+           _xlpm.nPrices,COUNT(_xlpm.Prices),
+           _xlpm.priceLevelRange,_xlfn.SEQUENCE(2,1,MEDIAN(1,_xlpm.nPrices-1,SUM(--(_xlpm.Prices&lt;=_xlpm.priceToInterpolate)))),
+           MMULT(--(_xlfn.SEQUENCE(_xlpm.nPrices)=TRANSPOSE(_xlpm.priceLevelRange)),
+                            MMULT(TRANSPOSE(MINVERSE({1,0;1,0}+{0,1;0,1}*INDEX(_xlpm.Prices,_xlpm.priceLevelRange))),
+                                             {1;0}+_xlpm.priceToInterpolate*{0;1})))</f>
+        <v>0</v>
+      </c>
+      <c r="S10" cm="1">
+        <f t="array" ref="S10:S12">_xlfn.LET(_xlpm.priceToInterpolate,S2,
+           _xlpm.Prices,Interp1Levels,
+           _xlpm.nPrices,COUNT(_xlpm.Prices),
+           _xlpm.priceLevelRange,_xlfn.SEQUENCE(2,1,MEDIAN(1,_xlpm.nPrices-1,SUM(--(_xlpm.Prices&lt;=_xlpm.priceToInterpolate)))),
+           MMULT(--(_xlfn.SEQUENCE(_xlpm.nPrices)=TRANSPOSE(_xlpm.priceLevelRange)),
+                            MMULT(TRANSPOSE(MINVERSE({1,0;1,0}+{0,1;0,1}*INDEX(_xlpm.Prices,_xlpm.priceLevelRange))),
+                                             {1;0}+_xlpm.priceToInterpolate*{0;1})))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>-1</v>
+      </c>
+      <c r="Q11">
+        <v>0.99</v>
+      </c>
+      <c r="R11">
+        <v>0.25</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.75</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="7"/>
+      <c r="K14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <f>1*(D3="Include")</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f>1*(E3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f>1*(F3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1*(G3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <f>1*(H3="Include")</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X16" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:G18" si="1">VLOOKUP(D4,$K$6:$L$14,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>-3.6234906809517637</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1.0017380409445025</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2.6217526400072613</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>-2.1595092491668759</v>
+      </c>
+      <c r="R17" s="4">
+        <v>-0.81361518618904993</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2.9731244353559259</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3.3232777112663836</v>
+      </c>
+      <c r="U17" s="4">
+        <v>-0.57623882460399356</v>
+      </c>
+      <c r="V17" s="4">
+        <v>-2.74703888666239</v>
+      </c>
+      <c r="W17" s="5">
+        <v>-0.6637837060640166</v>
+      </c>
+      <c r="X17" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-0.80942405210077695</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-0.34354688798646382</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1.1529709400872408</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-4.5389422159422264</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1.8983101366976927</v>
+      </c>
+      <c r="S18" s="4">
+        <v>2.6406320792445337</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1.6182630544367367</v>
+      </c>
+      <c r="U18" s="4">
+        <v>-0.40938601768766247</v>
+      </c>
+      <c r="V18" s="4">
+        <v>-1.2088770367490742</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1.545042404194124</v>
+      </c>
+      <c r="X18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="30">
+        <f>D6</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" ref="E19:G19" si="2">E6</f>
+        <v>1.99</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="G19" s="30">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>-2.7382290409865537</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1.0592317126917781</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.6789973282947757</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-0.73895587578903932</v>
+      </c>
+      <c r="R19" s="4">
+        <v>-9.7894924837435671E-2</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.83685080062647499</v>
+      </c>
+      <c r="T19" s="4">
+        <v>2.8317967758110196</v>
+      </c>
+      <c r="U19" s="4">
+        <v>-0.85675621312899386</v>
+      </c>
+      <c r="V19" s="4">
+        <v>-1.9750405626820255</v>
+      </c>
+      <c r="W19" s="5">
+        <v>-1.6269166279206462</v>
+      </c>
+      <c r="X19" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>4</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>-1.9956515376533084</v>
+      </c>
+      <c r="O20" s="4">
+        <v>-0.56261921400905801</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.5582707516623664</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>-1.2301553514877654</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.40314139672182003</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.82701395476594541</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0.66185991160424229</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0.61852681170604562</v>
+      </c>
+      <c r="V20" s="4">
+        <v>-1.2803867233102879</v>
+      </c>
+      <c r="W20" s="5">
+        <v>-1.0034852923994482</v>
+      </c>
+      <c r="X20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>-1.4604352378315344</v>
+      </c>
+      <c r="O21" s="4">
+        <v>-0.23222168346732808</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1.6926569212988625</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>-1.8158593763926805</v>
+      </c>
+      <c r="R21" s="4">
+        <v>-0.35355392593739565</v>
+      </c>
+      <c r="S21" s="4">
+        <v>2.1694133023300761</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2.7572259968761799</v>
+      </c>
+      <c r="U21" s="4">
+        <v>-0.31874165768128737</v>
+      </c>
+      <c r="V21" s="4">
+        <v>-2.4384843391948925</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1.8722463714826922</v>
+      </c>
+      <c r="X21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <f>1*(VLOOKUP($B22,$B$17:$G$19,D$21+2,0)=$C22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:G27" si="3">1*(VLOOKUP($B22,$B$17:$G$19,E$21+2,0)=$C22)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>6</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>-2.2838712058546169</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5.2384805288376857E-2</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2.23148640056624</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>-0.72781888837503406</v>
+      </c>
+      <c r="R22" s="4">
+        <v>-0.17690277077403671</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.90472165914907077</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0.68610473572202735</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0.621646938817773</v>
+      </c>
+      <c r="V22" s="4">
+        <v>-1.3077516745398003</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1.5132259848662661</v>
+      </c>
+      <c r="X22" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:D27" si="4">1*(VLOOKUP($B23,$B$17:$G$19,D$21+2,0)=$C23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>7</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>-1.459969830214795</v>
+      </c>
+      <c r="O23" s="4">
+        <v>-0.35845261155442687</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1.8184224417692219</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>-1.9692163349254073</v>
+      </c>
+      <c r="R23" s="4">
+        <v>-0.88731264037003044</v>
+      </c>
+      <c r="S23" s="4">
+        <v>2.8565289752954377</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1.6211753250503467</v>
+      </c>
+      <c r="U23" s="4">
+        <v>-0.65915500994560983</v>
+      </c>
+      <c r="V23" s="4">
+        <v>-0.96202031510473685</v>
+      </c>
+      <c r="W23" s="5">
+        <v>1.5526881522266276</v>
+      </c>
+      <c r="X23" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <v>8</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <v>-1.569385126102139</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.41314343821528876</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1.1562416878868502</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>-5.1515062573876893</v>
+      </c>
+      <c r="R24" s="4">
+        <v>2.1550564397316352</v>
+      </c>
+      <c r="S24" s="4">
+        <v>2.9964498176560541</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1.4293543468107419</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.20743267504439933</v>
+      </c>
+      <c r="V24" s="4">
+        <v>-1.6367870218551412</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0.63175942806813135</v>
+      </c>
+      <c r="X24" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <v>9</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>-1.033203933479321</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.21455850098068496</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.81864543249863608</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>-4.6348456913410887</v>
+      </c>
+      <c r="R25" s="4">
+        <v>2.1952689230411471</v>
+      </c>
+      <c r="S25" s="4">
+        <v>2.4395767682999416</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1.403770276338743</v>
+      </c>
+      <c r="U25" s="4">
+        <v>-9.069001789571951E-2</v>
+      </c>
+      <c r="V25" s="4">
+        <v>-1.3130802584430235</v>
+      </c>
+      <c r="W25" s="5">
+        <v>-0.5631515597305885</v>
+      </c>
+      <c r="X25" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10">
+        <v>10</v>
+      </c>
+      <c r="M26" s="10">
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
+        <v>-1.5026211672830621</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-0.91920982897624404</v>
+      </c>
+      <c r="P26" s="10">
+        <v>2.4218309962593061</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>-2.0418334227990425</v>
+      </c>
+      <c r="R26" s="10">
+        <v>-0.36998533916696497</v>
+      </c>
+      <c r="S26" s="10">
+        <v>2.4118187619660074</v>
+      </c>
+      <c r="T26" s="10">
+        <v>4.8778675714801629</v>
+      </c>
+      <c r="U26" s="10">
+        <v>-1.9590992549862021</v>
+      </c>
+      <c r="V26" s="10">
+        <v>-2.9187683164939608</v>
+      </c>
+      <c r="W26" s="9">
+        <v>-0.21827878736915185</v>
+      </c>
+      <c r="X26" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="X27" s="25"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29">
+        <f t="shared" ref="D28:G30" si="5">P3</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="X28" s="25"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="29">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="5"/>
+        <v>0.99</v>
+      </c>
+      <c r="F29" s="29">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="29">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="array" ref="K30:O30">MMULT(TRANSPOSE(InterpolationRespondentInclude),
+                    (EXP(MMULT(InterpolationUtilities,InterpolationDesign))*
+                     MMULT(InterpolationRespondentInclude,InterpolationProductInclude)) /
+                           (MMULT(EXP(MMULT(InterpolationUtilities,InterpolationDesign)),TRANSPOSE(InterpolationProductInclude)))
+                   )
+/SUM(InterpolationRespondentInclude)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="10">
+        <v>2.2601760047096506E-2</v>
+      </c>
+      <c r="M30" s="10">
+        <v>6.5908174779918133E-3</v>
+      </c>
+      <c r="N30" s="10">
+        <v>6.3963420016667188E-2</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0.9068440024582447</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+      <c r="K34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="array" ref="K35:O35">MMULT(TRANSPOSE(InterpolationRespondentInclude*InterpolationWeights),(EXP(MMULT(InterpolationUtilities,InterpolationDesign))*MMULT(InterpolationRespondentInclude,InterpolationProductInclude))/(MMULT(EXP(MMULT(InterpolationUtilities,InterpolationDesign)),TRANSPOSE(InterpolationProductInclude))))/SUM(InterpolationRespondentInclude*InterpolationWeights)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>2.2601760047096506E-2</v>
+      </c>
+      <c r="M35" s="10">
+        <v>6.5908174779918133E-3</v>
+      </c>
+      <c r="N35" s="10">
+        <v>6.3963420016667188E-2</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0.9068440024582447</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:H3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Exclude"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Include"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:H3" xr:uid="{290D7C78-A364-43A9-9C11-CBEDA8DA91FB}">
+      <formula1>$K$4:$K$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:G5" xr:uid="{4FC3F069-C3DE-4C5F-AE72-6198ECB1EE8A}">
+      <formula1>$K$9:$K$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:G4" xr:uid="{F852D78A-6CD0-4EA8-B497-AC5F6C6DD770}">
+      <formula1>$K$6:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>